--- a/observations/Observations.xlsx
+++ b/observations/Observations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshpanta/Documents/GitHub/imperial-ai-ml-capstone-project/observations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3261A7C-955B-9144-B31F-C9407AD8F8C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A3CDB-3EE5-1E4F-B077-143D7666361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17540" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17540" activeTab="11" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Week8" sheetId="10" r:id="rId9"/>
     <sheet name="Week9" sheetId="11" r:id="rId10"/>
     <sheet name="Week10" sheetId="12" r:id="rId11"/>
+    <sheet name="Week11" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="204">
   <si>
     <t>Function</t>
   </si>
@@ -626,6 +627,42 @@
   </si>
   <si>
     <t>0.474747-0.444444-0.363636</t>
+  </si>
+  <si>
+    <t>GP and EI. Changed EI to 0.001 from 0.01 for exploitation</t>
+  </si>
+  <si>
+    <t>0.787879-0.919192</t>
+  </si>
+  <si>
+    <t>GP and changed from UCB to EI with xi=0.01</t>
+  </si>
+  <si>
+    <t>0.401976-0.362499-0.443216-0.362051</t>
+  </si>
+  <si>
+    <t>GP and UCB with kappa=1</t>
+  </si>
+  <si>
+    <t>0.405247-0.994863-0.998796-0.997793</t>
+  </si>
+  <si>
+    <t>SVM. Changed C back to 1 from 5</t>
+  </si>
+  <si>
+    <t>0.423065-0.335611-0.549974-0.769547-0.114872</t>
+  </si>
+  <si>
+    <t>SVM continiue with C=5</t>
+  </si>
+  <si>
+    <t>0.001165-0.304194-0.258543-0.284629-0.258669-0.614834</t>
+  </si>
+  <si>
+    <t>SVM with C=10</t>
+  </si>
+  <si>
+    <t>0.097805-0.249076-0.092150-0.283382-0.631658-0.456355-0.291001-0.613192</t>
   </si>
 </sst>
 </file>
@@ -745,12 +782,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F054F69-D94D-D64A-81C5-4411182D0207}">
   <dimension ref="A1:R46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L44" sqref="L44:L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1101,25 +1138,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
@@ -1659,19 +1696,23 @@
         <f>Week9!F2</f>
         <v>5.2647530338544495E-57</v>
       </c>
+      <c r="K27" s="3">
+        <f>Week10!F2</f>
+        <v>1.7063022014990999E-17</v>
+      </c>
       <c r="P27" s="3" t="str">
         <f>INDEX($B$26:$M$26, MATCH(MAX(B27:M27), B27:M27, 0))</f>
-        <v>Week8</v>
+        <v>Week10</v>
       </c>
       <c r="Q27" s="3">
         <f>MAX(B27:M27)</f>
-        <v>1.55842898547174E-23</v>
-      </c>
-      <c r="R27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="34">
+        <v>1.7063022014990999E-17</v>
+      </c>
+      <c r="R27" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="17">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1711,16 +1752,20 @@
         <f>Week9!F3</f>
         <v>0.63564435544545905</v>
       </c>
+      <c r="K28" s="3">
+        <f>Week10!F3</f>
+        <v>0.72074952220389799</v>
+      </c>
       <c r="P28" s="3" t="str">
         <f t="shared" ref="P28:P34" si="0">INDEX($B$26:$M$26, MATCH(MAX(B28:M28), B28:M28, 0))</f>
-        <v>Week9</v>
+        <v>Week10</v>
       </c>
       <c r="Q28" s="3">
         <f t="shared" ref="Q28:Q34" si="1">MAX(B28:M28)</f>
-        <v>0.63564435544545905</v>
+        <v>0.72074952220389799</v>
       </c>
       <c r="R28" s="13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="17">
@@ -1763,6 +1808,10 @@
         <f>Week9!F4</f>
         <v>-2.6296009521582001E-3</v>
       </c>
+      <c r="K29" s="3">
+        <f>Week10!F4</f>
+        <v>-2.8096226155954401E-2</v>
+      </c>
       <c r="P29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week9</v>
@@ -1772,7 +1821,7 @@
         <v>-2.6296009521582001E-3</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -1815,6 +1864,10 @@
         <f>Week9!F5</f>
         <v>0.57701270290822404</v>
       </c>
+      <c r="K30" s="3">
+        <f>Week10!F5</f>
+        <v>-1.0498889373006599</v>
+      </c>
       <c r="P30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week7</v>
@@ -1867,13 +1920,17 @@
         <f>Week9!F6</f>
         <v>4189.1605631845196</v>
       </c>
+      <c r="K31" s="3">
+        <f>Week10!F6</f>
+        <v>4537.8399923503803</v>
+      </c>
       <c r="P31" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Week7</v>
+        <v>Week10</v>
       </c>
       <c r="Q31" s="3">
         <f t="shared" si="1"/>
-        <v>4310.9805594415402</v>
+        <v>4537.8399923503803</v>
       </c>
       <c r="R31" t="s">
         <v>78</v>
@@ -1919,6 +1976,10 @@
         <f>Week9!F7</f>
         <v>-0.14749973636875199</v>
       </c>
+      <c r="K32" s="3">
+        <f>Week10!F7</f>
+        <v>-0.222075655316051</v>
+      </c>
       <c r="P32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week4</v>
@@ -1971,13 +2032,17 @@
         <f>Week9!F8</f>
         <v>1.7512570814124699</v>
       </c>
+      <c r="K33" s="3">
+        <f>Week10!F8</f>
+        <v>1.92969449721477</v>
+      </c>
       <c r="P33" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Week6</v>
+        <v>Week10</v>
       </c>
       <c r="Q33" s="3">
         <f t="shared" si="1"/>
-        <v>1.88380795677045</v>
+        <v>1.92969449721477</v>
       </c>
       <c r="R33" t="s">
         <v>79</v>
@@ -2023,6 +2088,10 @@
         <f>Week9!F9</f>
         <v>6.4336900000000004</v>
       </c>
+      <c r="K34" s="3">
+        <f>Week10!F9</f>
+        <v>9.9444201092011006</v>
+      </c>
       <c r="P34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week6</v>
@@ -2115,6 +2184,9 @@
       <c r="K39" s="14" t="s">
         <v>188</v>
       </c>
+      <c r="L39" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="40" spans="1:18" ht="21" customHeight="1">
       <c r="A40">
@@ -2150,6 +2222,9 @@
       <c r="K40" s="13" t="s">
         <v>188</v>
       </c>
+      <c r="L40" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="41" spans="1:18" ht="23" customHeight="1">
       <c r="A41">
@@ -2185,6 +2260,9 @@
       <c r="K41" s="13" t="s">
         <v>188</v>
       </c>
+      <c r="L41" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="42" spans="1:18" ht="19" customHeight="1">
       <c r="A42">
@@ -2220,6 +2298,9 @@
       <c r="K42" s="14" t="s">
         <v>78</v>
       </c>
+      <c r="L42" s="13" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="43" spans="1:18" s="14" customFormat="1" ht="23" customHeight="1">
       <c r="A43" s="14">
@@ -2255,8 +2336,11 @@
       <c r="K43" s="14" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" ht="34">
+      <c r="L43" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="17">
       <c r="A44">
         <v>6</v>
       </c>
@@ -2288,6 +2372,9 @@
         <v>177</v>
       </c>
       <c r="K44" t="s">
+        <v>79</v>
+      </c>
+      <c r="L44" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2325,6 +2412,9 @@
       <c r="K45" t="s">
         <v>79</v>
       </c>
+      <c r="L45" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="46" spans="1:18" ht="17">
       <c r="A46">
@@ -2358,6 +2448,9 @@
         <v>179</v>
       </c>
       <c r="K46" t="s">
+        <v>79</v>
+      </c>
+      <c r="L46" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2429,7 +2522,7 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>171</v>
       </c>
       <c r="D2" s="13" t="s">
@@ -2465,7 +2558,7 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>172</v>
       </c>
       <c r="D3" s="13" t="s">
@@ -2500,7 +2593,7 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>173</v>
       </c>
       <c r="D4" s="13" t="s">
@@ -2535,7 +2628,7 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>174</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -2570,7 +2663,7 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>175</v>
       </c>
       <c r="D6" s="13" t="s">
@@ -2605,7 +2698,7 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>176</v>
       </c>
       <c r="D7" s="13" t="s">
@@ -2640,7 +2733,7 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>178</v>
       </c>
       <c r="D8" s="13" t="s">
@@ -3155,7 +3248,822 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9F4F33-0F72-E045-9A1C-A86F31202424}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E2" s="11">
+        <v>7.7108751145028402E-16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1.7063022014990999E-17</v>
+      </c>
+      <c r="G2" s="8">
+        <f>(ABS(E2 -F2)/MAX(ABS(E2),ABS(F2)) )* 100</f>
+        <v>97.787148441439754</v>
+      </c>
+      <c r="H2" s="8">
+        <f xml:space="preserve"> Week4!G2 - Week10!G2</f>
+        <v>2.2128515585602457</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="12">
+        <v>-1.82610597959317E-4</v>
+      </c>
+      <c r="K2">
+        <f>ABS(F2) - ABS(J2)</f>
+        <v>-1.8261059795929993E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.63564435544545905</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.72074952220389799</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G9" si="0">(ABS(E3 -F3)/MAX(ABS(E3),ABS(F3)) )* 100</f>
+        <v>11.807870020947849</v>
+      </c>
+      <c r="H3" s="8">
+        <f xml:space="preserve"> Week4!G3 - Week10!G3</f>
+        <v>5.1900150842701791</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.680331821170302</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K9" si="1">ABS(F3) - ABS(J3)</f>
+        <v>4.0417701033595987E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E4" s="12">
+        <v>-2.6296009521582001E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-2.8096226155954401E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>90.640732539800865</v>
+      </c>
+      <c r="H4" s="8">
+        <f xml:space="preserve"> Week4!G4 - Week10!G4</f>
+        <v>-34.316054971512727</v>
+      </c>
+      <c r="J4" s="12">
+        <v>-1.53417251817563E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>1.2754500974198101E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="18">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.57749759425457003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>-1.0498889373006599</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>155.00558904252847</v>
+      </c>
+      <c r="H5" s="8">
+        <f xml:space="preserve"> Week4!G5 - Week10!G5</f>
+        <v>-75.163482888473581</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.52942733383851404</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.52046160346214587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4310.9805594415402</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4537.8399923503803</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>4.9992823301673521</v>
+      </c>
+      <c r="H6" s="8">
+        <f xml:space="preserve"> Week4!G6 - Week10!G6</f>
+        <v>33.496637213798927</v>
+      </c>
+      <c r="J6" s="12">
+        <v>3773.9891608299399</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>763.85083152044035</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="12">
+        <v>-0.12430862230397099</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.222075655316051</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>44.024201064696207</v>
+      </c>
+      <c r="H7" s="8">
+        <f xml:space="preserve"> Week4!G7 - Week10!G7</f>
+        <v>17.705513263185914</v>
+      </c>
+      <c r="J7" s="12">
+        <v>-0.22564673102918401</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>-3.571075713133004E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1.88380795677045</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1.92969449721477</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3779173600044214</v>
+      </c>
+      <c r="H8" s="8">
+        <f xml:space="preserve"> Week4!G8 - Week10!G8</f>
+        <v>36.003341592721242</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1.79243618860138</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.13725830861339006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E9" s="12">
+        <v>9.9707717627203998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9.9444201092011006</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.26428900536892258</v>
+      </c>
+      <c r="H9" s="8">
+        <f xml:space="preserve"> Week4!G9 - Week10!G9</f>
+        <v>-0.19138452857587152</v>
+      </c>
+      <c r="J9" s="12">
+        <v>10.051246412332</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-0.1068263031308998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="11">
+        <v>7.7108751145028402E-16</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8" t="e">
+        <f>(ABS(#REF! -F14)/MAX(ABS(#REF!),ABS(F14)) )* 100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="8" t="e">
+        <f xml:space="preserve"> Week3!G14 - Week10!G14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="12">
+        <v>-1.82610597959317E-4</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="18">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.63564435544545905</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
+        <v>100</v>
+      </c>
+      <c r="H15" s="8">
+        <f xml:space="preserve"> Week3!G15 - Week10!G15</f>
+        <v>-100</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.680331821170302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E16" s="12">
+        <v>-2.6296009521582001E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="8">
+        <f xml:space="preserve"> Week3!G16 - Week10!G16</f>
+        <v>-100</v>
+      </c>
+      <c r="J16" s="12">
+        <v>-1.53417251817563E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="18">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0.57749759425457003</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="8">
+        <f xml:space="preserve"> Week3!G17 - Week10!G17</f>
+        <v>-100</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.52942733383851404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E18" s="12">
+        <v>4310.9805594415402</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="H18" s="8">
+        <f xml:space="preserve"> Week3!G18 - Week10!G18</f>
+        <v>-100</v>
+      </c>
+      <c r="J18" s="12">
+        <v>3773.9891608299399</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="8" t="e">
+        <f xml:space="preserve"> Week3!G19 - Week10!G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="8" t="e">
+        <f xml:space="preserve"> Week3!G20 - Week10!G20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="8" t="e">
+        <f xml:space="preserve"> Week3!G21 - Week10!G21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8" t="e">
+        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="8" t="e">
+        <f xml:space="preserve"> Week3!G2 - Week10!G28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="18">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8" t="e">
+        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="8" t="e">
+        <f xml:space="preserve"> Week3!G3 - Week10!G29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="1:12" ht="18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="G30" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="8" t="e">
+        <f xml:space="preserve"> Week3!G4 - Week10!G30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:12" ht="18">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="8" t="e">
+        <f xml:space="preserve"> Week3!G5 - Week10!G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:12" ht="18">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="8" t="e">
+        <f xml:space="preserve"> Week3!G6 - Week10!G32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="1:10" ht="18">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E33" s="12">
+        <v>-0.12430862230397099</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H33" s="8">
+        <f xml:space="preserve"> Week3!G7 - Week10!G33</f>
+        <v>-38.753477525597134</v>
+      </c>
+      <c r="J33" s="12">
+        <v>-0.22564673102918401</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="18">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E34" s="12">
+        <v>1.88380795677045</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="8">
+        <f xml:space="preserve"> Week3!G8 - Week10!G34</f>
+        <v>-70.691643968564648</v>
+      </c>
+      <c r="J34" s="12">
+        <v>1.79243618860138</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="18">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E35" s="12">
+        <v>9.9707717627203998</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H35" s="8">
+        <f xml:space="preserve"> Week3!G9 - Week10!G35</f>
+        <v>-97.559723769512345</v>
+      </c>
+      <c r="J35" s="12">
+        <v>10.051246412332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0A6397-1792-FC49-8FB0-C74C348251FE}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -3204,7 +4112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18">
+    <row r="2" spans="1:11" ht="34">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3212,10 +4120,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E2" s="11">
         <v>7.7108751145028402E-16</v>
@@ -3226,19 +4134,15 @@
         <v>100</v>
       </c>
       <c r="H2" s="8">
-        <f xml:space="preserve"> Week4!G2 - Week10!G2</f>
+        <f xml:space="preserve"> Week4!G2 - Week11!G2</f>
         <v>0</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="12">
-        <v>-1.82610597959317E-4</v>
-      </c>
-      <c r="K2">
-        <f>ABS(F2) - ABS(J2)</f>
-        <v>-1.82610597959317E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="18">
+        <v>-1.4302305791296299E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3249,10 +4153,10 @@
         <v>190</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E3" s="12">
-        <v>0.63564435544545905</v>
+        <v>0.72074952220389799</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="8">
@@ -3260,18 +4164,14 @@
         <v>100</v>
       </c>
       <c r="H3" s="8">
-        <f xml:space="preserve"> Week4!G3 - Week10!G3</f>
+        <f xml:space="preserve"> Week4!G3 - Week11!G3</f>
         <v>-83.002114894781968</v>
       </c>
       <c r="J3" s="12">
         <v>0.680331821170302</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K9" si="1">ABS(F3) - ABS(J3)</f>
-        <v>-0.680331821170302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="18">
+    </row>
+    <row r="4" spans="1:11" ht="34">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3282,7 +4182,7 @@
         <v>191</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E4" s="12">
         <v>-2.6296009521582001E-3</v>
@@ -3293,18 +4193,14 @@
         <v>100</v>
       </c>
       <c r="H4" s="8">
-        <f xml:space="preserve"> Week4!G4 - Week10!G4</f>
+        <f xml:space="preserve"> Week4!G4 - Week11!G4</f>
         <v>-43.675322431711862</v>
       </c>
       <c r="J4" s="12">
         <v>-1.53417251817563E-2</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="1"/>
-        <v>-1.53417251817563E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="18">
+    </row>
+    <row r="5" spans="1:11" ht="34">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3312,10 +4208,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E5" s="12">
         <v>0.57749759425457003</v>
@@ -3326,15 +4222,11 @@
         <v>100</v>
       </c>
       <c r="H5" s="8">
-        <f xml:space="preserve"> Week4!G5 - Week10!G5</f>
+        <f xml:space="preserve"> Week4!G5 - Week11!G5</f>
         <v>-20.157893845945111</v>
       </c>
       <c r="J5" s="12">
-        <v>0.52942733383851404</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="1"/>
-        <v>-0.52942733383851404</v>
+        <v>1.03862596115182</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="18">
@@ -3345,13 +4237,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E6" s="12">
-        <v>4310.9805594415402</v>
+        <v>4537.8399923503803</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="8">
@@ -3359,15 +4251,11 @@
         <v>100</v>
       </c>
       <c r="H6" s="8">
-        <f xml:space="preserve"> Week4!G6 - Week10!G6</f>
+        <f xml:space="preserve"> Week4!G6 - Week11!G6</f>
         <v>-61.504080456033719</v>
       </c>
       <c r="J6" s="12">
-        <v>3773.9891608299399</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="1"/>
-        <v>-3773.9891608299399</v>
+        <v>4531.9910287256898</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18">
@@ -3378,10 +4266,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="E7" s="12">
         <v>-0.12430862230397099</v>
@@ -3392,15 +4280,11 @@
         <v>100</v>
       </c>
       <c r="H7" s="8">
-        <f xml:space="preserve"> Week4!G7 - Week10!G7</f>
+        <f xml:space="preserve"> Week4!G7 - Week11!G7</f>
         <v>-38.270285672117879</v>
       </c>
       <c r="J7" s="12">
-        <v>-0.22564673102918401</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="1"/>
-        <v>-0.22564673102918401</v>
+        <v>-0.24925084580634199</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18">
@@ -3411,13 +4295,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="E8" s="12">
-        <v>1.88380795677045</v>
+        <v>1.92969449721477</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="8">
@@ -3425,15 +4309,11 @@
         <v>100</v>
       </c>
       <c r="H8" s="8">
-        <f xml:space="preserve"> Week4!G8 - Week10!G8</f>
+        <f xml:space="preserve"> Week4!G8 - Week11!G8</f>
         <v>-61.618741047274334</v>
       </c>
       <c r="J8" s="12">
-        <v>1.79243618860138</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="1"/>
-        <v>-1.79243618860138</v>
+        <v>1.82254519575486</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
@@ -3444,10 +4324,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="E9" s="12">
         <v>9.9707717627203998</v>
@@ -3458,15 +4338,11 @@
         <v>100</v>
       </c>
       <c r="H9" s="8">
-        <f xml:space="preserve"> Week4!G9 - Week10!G9</f>
+        <f xml:space="preserve"> Week4!G9 - Week11!G9</f>
         <v>-99.927095523206944</v>
       </c>
       <c r="J9" s="12">
-        <v>10.051246412332</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="1"/>
-        <v>-10.051246412332</v>
+        <v>10.0604203159638</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -3506,7 +4382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="18">
+    <row r="14" spans="1:11" ht="34">
       <c r="A14">
         <v>1</v>
       </c>
@@ -3514,10 +4390,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E14" s="11">
         <v>7.7108751145028402E-16</v>
@@ -3528,15 +4404,15 @@
         <v>#REF!</v>
       </c>
       <c r="H14" s="8" t="e">
-        <f xml:space="preserve"> Week3!G14 - Week10!G14</f>
+        <f xml:space="preserve"> Week3!G14 - Week11!G14</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="12">
-        <v>-1.82610597959317E-4</v>
+        <v>-1.4302305791296299E-4</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="18">
+    <row r="15" spans="1:11" ht="34">
       <c r="A15">
         <v>2</v>
       </c>
@@ -3547,25 +4423,25 @@
         <v>190</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E15" s="12">
-        <v>0.63564435544545905</v>
+        <v>0.72074952220389799</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
+        <f t="shared" ref="G15:G21" si="1">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
         <v>100</v>
       </c>
       <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week10!G15</f>
+        <f xml:space="preserve"> Week3!G15 - Week11!G15</f>
         <v>-100</v>
       </c>
       <c r="J15" s="12">
         <v>0.680331821170302</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="18">
+    <row r="16" spans="1:11" ht="34">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3576,24 +4452,24 @@
         <v>191</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E16" s="12">
         <v>-2.6296009521582001E-3</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week10!G16</f>
+        <f xml:space="preserve"> Week3!G16 - Week11!G16</f>
         <v>-100</v>
       </c>
       <c r="J16" s="12">
         <v>-1.53417251817563E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18">
+    <row r="17" spans="1:12" ht="34">
       <c r="A17">
         <v>4</v>
       </c>
@@ -3601,25 +4477,25 @@
         <v>4</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E17" s="12">
         <v>0.57749759425457003</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week10!G17</f>
+        <f xml:space="preserve"> Week3!G17 - Week11!G17</f>
         <v>-100</v>
       </c>
       <c r="J17" s="12">
-        <v>0.52942733383851404</v>
+        <v>1.03862596115182</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">
@@ -3630,25 +4506,25 @@
         <v>5</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="E18" s="12">
-        <v>4310.9805594415402</v>
+        <v>4537.8399923503803</v>
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week10!G18</f>
+        <f xml:space="preserve"> Week3!G18 - Week11!G18</f>
         <v>-100</v>
       </c>
       <c r="J18" s="12">
-        <v>3773.9891608299399</v>
+        <v>4531.9910287256898</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18">
@@ -3663,11 +4539,11 @@
       <c r="E19" s="12"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H19" s="8" t="e">
-        <f xml:space="preserve"> Week3!G19 - Week10!G19</f>
+        <f xml:space="preserve"> Week3!G19 - Week11!G19</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J19" s="12"/>
@@ -3684,11 +4560,11 @@
       <c r="E20" s="12"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H20" s="8" t="e">
-        <f xml:space="preserve"> Week3!G20 - Week10!G20</f>
+        <f xml:space="preserve"> Week3!G20 - Week11!G20</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J20" s="12"/>
@@ -3705,11 +4581,11 @@
       <c r="E21" s="12"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8" t="e">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H21" s="8" t="e">
-        <f xml:space="preserve"> Week3!G21 - Week10!G21</f>
+        <f xml:space="preserve"> Week3!G21 - Week11!G21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J21" s="12"/>
@@ -3770,7 +4646,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="H28" s="8" t="e">
-        <f xml:space="preserve"> Week3!G2 - Week10!G28</f>
+        <f xml:space="preserve"> Week3!G2 - Week11!G28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J28" s="12"/>
@@ -3787,11 +4663,11 @@
       <c r="E29" s="12"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8" t="e">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
+        <f t="shared" ref="G29:G35" si="2">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H29" s="8" t="e">
-        <f xml:space="preserve"> Week3!G3 - Week10!G29</f>
+        <f xml:space="preserve"> Week3!G3 - Week11!G29</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J29" s="12"/>
@@ -3807,11 +4683,11 @@
       <c r="D30" s="10"/>
       <c r="E30" s="12"/>
       <c r="G30" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H30" s="8" t="e">
-        <f xml:space="preserve"> Week3!G4 - Week10!G30</f>
+        <f xml:space="preserve"> Week3!G4 - Week11!G30</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J30" s="12"/>
@@ -3828,11 +4704,11 @@
       <c r="E31" s="12"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H31" s="8" t="e">
-        <f xml:space="preserve"> Week3!G5 - Week10!G31</f>
+        <f xml:space="preserve"> Week3!G5 - Week11!G31</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J31" s="12"/>
@@ -3849,11 +4725,11 @@
       <c r="E32" s="12"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8" t="e">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H32" s="8" t="e">
-        <f xml:space="preserve"> Week3!G6 - Week10!G32</f>
+        <f xml:space="preserve"> Week3!G6 - Week11!G32</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J32" s="12"/>
@@ -3865,27 +4741,19 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E33" s="12">
-        <v>-0.12430862230397099</v>
-      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="12"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H33" s="8">
-        <f xml:space="preserve"> Week3!G7 - Week10!G33</f>
-        <v>-38.753477525597134</v>
-      </c>
-      <c r="J33" s="12">
-        <v>-0.22564673102918401</v>
-      </c>
+      <c r="G33" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="8" t="e">
+        <f xml:space="preserve"> Week3!G7 - Week11!G33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" ht="18">
       <c r="A34">
@@ -3894,27 +4762,21 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>183</v>
-      </c>
+      <c r="C34" s="12"/>
       <c r="D34" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="12">
-        <v>1.88380795677045</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="E34" s="12"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H34" s="8">
-        <f xml:space="preserve"> Week3!G8 - Week10!G34</f>
-        <v>-70.691643968564648</v>
-      </c>
-      <c r="J34" s="12">
-        <v>1.79243618860138</v>
-      </c>
+      <c r="G34" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="8" t="e">
+        <f xml:space="preserve"> Week3!G8 - Week11!G34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" ht="18">
       <c r="A35">
@@ -3923,27 +4785,19 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="12">
-        <v>9.9707717627203998</v>
-      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="12"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H35" s="8">
-        <f xml:space="preserve"> Week3!G9 - Week10!G35</f>
-        <v>-97.559723769512345</v>
-      </c>
-      <c r="J35" s="12">
-        <v>10.051246412332</v>
-      </c>
+      <c r="G35" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <f xml:space="preserve"> Week3!G9 - Week11!G35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/observations/Observations.xlsx
+++ b/observations/Observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshpanta/Documents/GitHub/imperial-ai-ml-capstone-project/observations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A3CDB-3EE5-1E4F-B077-143D7666361A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1254A-6717-B947-A40B-717E67D73A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17540" activeTab="11" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17540" activeTab="12" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Week9" sheetId="11" r:id="rId10"/>
     <sheet name="Week10" sheetId="12" r:id="rId11"/>
     <sheet name="Week11" sheetId="13" r:id="rId12"/>
+    <sheet name="Week12" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="213">
   <si>
     <t>Function</t>
   </si>
@@ -163,9 +164,6 @@
     <t>Week6</t>
   </si>
   <si>
-    <t>% difference with maxima</t>
-  </si>
-  <si>
     <t>Order</t>
   </si>
   <si>
@@ -248,12 +246,6 @@
   </si>
   <si>
     <t>0.122471-0.258725-0.109219-0.228651-0.547005-0.439823-0.346755-0.502501</t>
-  </si>
-  <si>
-    <t>Differences each week</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Result after each week</t>
@@ -663,6 +655,42 @@
   </si>
   <si>
     <t>0.097805-0.249076-0.092150-0.283382-0.631658-0.456355-0.291001-0.613192</t>
+  </si>
+  <si>
+    <t>GP and EI. Changed EI back to 0.01</t>
+  </si>
+  <si>
+    <t>0.222222-0.262626</t>
+  </si>
+  <si>
+    <t>0.515152-0.535354-0.424242</t>
+  </si>
+  <si>
+    <t>GP and UCB. Changed from EI to UCB</t>
+  </si>
+  <si>
+    <t>0.458177-0.406071-0.433334-0.377300</t>
+  </si>
+  <si>
+    <t>GP and UCB. Kappa continue with 1</t>
+  </si>
+  <si>
+    <t>SVM with  c=1</t>
+  </si>
+  <si>
+    <t>SVM continue with C=10</t>
+  </si>
+  <si>
+    <t>0.693927-0.995985-0.998781-0.984237</t>
+  </si>
+  <si>
+    <t>0.436945-0.341659-0.542857-0.779310-0.141693</t>
+  </si>
+  <si>
+    <t>0.015379-0.223299-0.253615-0.317338-0.159980-0.596164</t>
+  </si>
+  <si>
+    <t>0.185782-0.257161-0.122317-0.261284-0.594025-0.405767-0.247267-0.624735</t>
   </si>
 </sst>
 </file>
@@ -754,7 +782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -766,7 +794,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -785,9 +812,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,10 +1147,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F054F69-D94D-D64A-81C5-4411182D0207}">
-  <dimension ref="A1:R46"/>
+  <dimension ref="A3:R24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44:L46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22:M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1137,1327 +1161,916 @@
     <col min="18" max="18" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="B1" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18">
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E4" t="s">
         <v>34</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="9">
-        <f>Week1!G2</f>
-        <v>100</v>
-      </c>
-      <c r="C3" s="9">
-        <f>Week2!G2</f>
-        <v>100</v>
-      </c>
-      <c r="D3" s="9">
-        <f>Week3!G2</f>
-        <v>100.00000000002061</v>
-      </c>
-      <c r="E3" s="9">
-        <f>Week4!G2</f>
-        <v>100</v>
-      </c>
-      <c r="F3" s="9">
-        <f>Week5!G2</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9">
-        <f>Week1!G3</f>
-        <v>87.192534248955923</v>
-      </c>
-      <c r="C4" s="9">
-        <f>Week2!G3</f>
-        <v>14.270145642943518</v>
-      </c>
-      <c r="D4" s="9">
-        <f>Week3!G3</f>
-        <v>32.19880112635304</v>
-      </c>
-      <c r="E4" s="9">
-        <f>Week4!G3</f>
-        <v>16.997885105218028</v>
-      </c>
-      <c r="F4" s="9">
-        <f>Week5!G3</f>
-        <v>101.27947346584287</v>
+      <c r="H4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <f>Week1!F2</f>
+        <v>1.5192269382386801E-55</v>
+      </c>
+      <c r="C5" s="3">
+        <f>Week2!F2</f>
+        <v>5.6241271475019997E-35</v>
+      </c>
+      <c r="D5" s="3">
+        <f>Week3!F2</f>
+        <v>-1.58899575668444E-28</v>
+      </c>
+      <c r="E5" s="3">
+        <f>Week4!F2</f>
+        <v>-1.9365253523356699E-32</v>
+      </c>
+      <c r="F5" s="3">
+        <f>Week5!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <f>Week6!F2</f>
+        <v>-2.4207951479406601E-51</v>
+      </c>
+      <c r="H5" s="3">
+        <f>Week7!F2</f>
+        <v>2.45415370407854E-54</v>
+      </c>
+      <c r="I5" s="3">
+        <f>Week8!F2</f>
+        <v>1.55842898547174E-23</v>
+      </c>
+      <c r="J5" s="3">
+        <f>Week9!F2</f>
+        <v>5.2647530338544495E-57</v>
+      </c>
+      <c r="K5" s="3">
+        <f>Week10!F2</f>
+        <v>1.7063022014990999E-17</v>
+      </c>
+      <c r="L5" s="3">
+        <f>Week11!F2</f>
+        <v>5.3199374410186903E-77</v>
+      </c>
+      <c r="P5" s="3" t="str">
+        <f>INDEX($B$4:$M$4, MATCH(MAX(B5:M5), B5:M5, 0))</f>
+        <v>Week10</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>MAX(B5:M5)</f>
+        <v>1.7063022014990999E-17</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="17">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3">
+        <f>Week1!F3</f>
+        <v>7.8279871043669E-2</v>
+      </c>
+      <c r="C6" s="3">
+        <f>Week2!F3</f>
+        <v>0.52398534129501795</v>
+      </c>
+      <c r="D6" s="3">
+        <f>Week3!F3</f>
+        <v>0.41440446386451901</v>
+      </c>
+      <c r="E6" s="3">
+        <f>Week4!F3</f>
+        <v>0.50731325542921302</v>
+      </c>
+      <c r="F6" s="3">
+        <f>Week5!F3</f>
+        <v>-7.8202085575153398E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>Week6!F3</f>
+        <v>0.56924086824543896</v>
+      </c>
+      <c r="H6" s="3">
+        <f>Week7!F3</f>
+        <v>0.19283512655684401</v>
+      </c>
+      <c r="I6" s="3">
+        <f>Week8!F3</f>
+        <v>0.147156885668869</v>
+      </c>
+      <c r="J6" s="3">
+        <f>Week9!F3</f>
+        <v>0.63564435544545905</v>
+      </c>
+      <c r="K6" s="3">
+        <f>Week10!F3</f>
+        <v>0.72074952220389799</v>
+      </c>
+      <c r="L6" s="3">
+        <f>Week11!F3</f>
+        <v>0.59041015345404801</v>
+      </c>
+      <c r="P6" s="3" t="str">
+        <f t="shared" ref="P6:P12" si="0">INDEX($B$4:$M$4, MATCH(MAX(B6:M6), B6:M6, 0))</f>
+        <v>Week10</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" ref="Q6:Q12" si="1">MAX(B6:M6)</f>
+        <v>0.72074952220389799</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="17">
+      <c r="A7">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
-        <f>Week1!G4</f>
-        <v>18.195891275072764</v>
-      </c>
-      <c r="C5" s="9">
-        <f>Week2!G4</f>
-        <v>79.432989533535448</v>
-      </c>
-      <c r="D5" s="9">
-        <f>Week3!G4</f>
-        <v>84.996763770610158</v>
-      </c>
-      <c r="E5" s="9">
-        <f>Week4!G4</f>
-        <v>56.324677568288138</v>
-      </c>
-      <c r="F5" s="9">
-        <f>Week5!G4</f>
-        <v>84.348732285012801</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9">
-        <f>Week1!G5</f>
-        <v>92.995568312193811</v>
-      </c>
-      <c r="C6" s="9">
-        <f>Week2!G5</f>
-        <v>37.663970264287499</v>
-      </c>
-      <c r="D6" s="9">
-        <f>Week3!G5</f>
-        <v>43.643107211859409</v>
-      </c>
-      <c r="E6" s="9">
-        <f>Week4!G5</f>
-        <v>79.842106154054889</v>
-      </c>
-      <c r="F6" s="9">
-        <f>Week5!G5</f>
-        <v>81.783568279145115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9">
-        <f>Week1!G6</f>
-        <v>4.8736401771722404</v>
-      </c>
-      <c r="C7" s="9">
-        <f>Week2!G6</f>
-        <v>10.863962915841164</v>
-      </c>
-      <c r="D7" s="9">
-        <f>Week3!G6</f>
-        <v>55.79043066718188</v>
-      </c>
-      <c r="E7" s="9">
-        <f>Week4!G6</f>
-        <v>38.495919543966281</v>
-      </c>
-      <c r="F7" s="9">
-        <f>Week5!G6</f>
-        <v>31.290927975307341</v>
+      <c r="B7" s="3">
+        <f>Week1!F4</f>
+        <v>-4.2583435652523802E-2</v>
+      </c>
+      <c r="C7" s="3">
+        <f>Week2!F4</f>
+        <v>-7.1645825427363698E-3</v>
+      </c>
+      <c r="D7" s="3">
+        <f>Week3!F4</f>
+        <v>-4.77535808487883E-2</v>
+      </c>
+      <c r="E7" s="3">
+        <f>Week4!F4</f>
+        <v>-1.64041892396753E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <f>Week5!F4</f>
+        <v>-4.5776372069054702E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <f>Week6!F4</f>
+        <v>-4.4074741745635797E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f>Week7!F4</f>
+        <v>-3.3040646100640003E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <f>Week8!F4</f>
+        <v>-5.44952338148788E-2</v>
+      </c>
+      <c r="J7" s="3">
+        <f>Week9!F4</f>
+        <v>-2.6296009521582001E-3</v>
+      </c>
+      <c r="K7" s="3">
+        <f>Week10!F4</f>
+        <v>-2.8096226155954401E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <f>Week11!F4</f>
+        <v>-2.4594206281152501E-2</v>
+      </c>
+      <c r="P7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Week9</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>-2.6296009521582001E-3</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" s="9">
-        <f>Week1!G7</f>
-        <v>4.3185199325497097</v>
-      </c>
-      <c r="C8" s="9">
-        <f>Week2!G7</f>
-        <v>54.524214293269047</v>
-      </c>
-      <c r="D8" s="9">
-        <f>Week3!G7</f>
-        <v>61.246522474402866</v>
-      </c>
-      <c r="E8" s="9">
-        <f>Week4!G7</f>
-        <v>61.729714327882121</v>
-      </c>
-      <c r="F8" s="9">
-        <f>Week5!G7</f>
-        <v>44.113314666396683</v>
+        <v>4</v>
+      </c>
+      <c r="B8" s="3">
+        <f>Week1!F5</f>
+        <v>-0.281966339453947</v>
+      </c>
+      <c r="C8" s="3">
+        <f>Week2!F5</f>
+        <v>-2.50936323387395</v>
+      </c>
+      <c r="D8" s="3">
+        <f>Week3!F5</f>
+        <v>-2.2686705479562499</v>
+      </c>
+      <c r="E8" s="3">
+        <f>Week4!F5</f>
+        <v>-0.81146453991068301</v>
+      </c>
+      <c r="F8" s="3">
+        <f>Week5!F5</f>
+        <v>-1.5478681188544401</v>
+      </c>
+      <c r="G8" s="3">
+        <f>Week6!F5</f>
+        <v>-1.2401877238019301</v>
+      </c>
+      <c r="H8" s="3">
+        <f>Week7!F5</f>
+        <v>0.57749759425457003</v>
+      </c>
+      <c r="I8" s="3">
+        <f>Week8!F5</f>
+        <v>0.38876268954520699</v>
+      </c>
+      <c r="J8" s="3">
+        <f>Week9!F5</f>
+        <v>0.57701270290822404</v>
+      </c>
+      <c r="K8" s="3">
+        <f>Week10!F5</f>
+        <v>-1.0498889373006599</v>
+      </c>
+      <c r="L8" s="3">
+        <f>Week11!F5</f>
+        <v>0.32777233146964202</v>
+      </c>
+      <c r="P8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Week7</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57749759425457003</v>
+      </c>
+      <c r="R8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" s="9">
-        <f>Week1!G8</f>
-        <v>54.387151210578047</v>
-      </c>
-      <c r="C9" s="9">
-        <f>Week2!G8</f>
-        <v>9.9175447287705296</v>
-      </c>
-      <c r="D9" s="9">
-        <f>Week3!G8</f>
-        <v>29.308356031435345</v>
-      </c>
-      <c r="E9" s="9">
-        <f>Week4!G8</f>
-        <v>38.381258952725666</v>
-      </c>
-      <c r="F9" s="9">
-        <f>Week5!G8</f>
-        <v>18.524258187636743</v>
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <f>Week1!F6</f>
+        <v>1035.78336893086</v>
+      </c>
+      <c r="C9" s="3">
+        <f>Week2!F6</f>
+        <v>1221.5705853873001</v>
+      </c>
+      <c r="D9" s="3">
+        <f>Week3!F6</f>
+        <v>2763.1361350550201</v>
+      </c>
+      <c r="E9" s="3">
+        <f>Week4!F6</f>
+        <v>1699.44147161398</v>
+      </c>
+      <c r="F9" s="3">
+        <f>Week5!F6</f>
+        <v>4021.5011695428002</v>
+      </c>
+      <c r="G9" s="3">
+        <f>Week6!F6</f>
+        <v>1938.943267221</v>
+      </c>
+      <c r="H9" s="3">
+        <f>Week7!F6</f>
+        <v>4310.9805594415402</v>
+      </c>
+      <c r="I9" s="3">
+        <f>Week8!F6</f>
+        <v>4158.7866946484401</v>
+      </c>
+      <c r="J9" s="3">
+        <f>Week9!F6</f>
+        <v>4189.1605631845196</v>
+      </c>
+      <c r="K9" s="3">
+        <f>Week10!F6</f>
+        <v>4537.8399923503803</v>
+      </c>
+      <c r="L9" s="3">
+        <f>Week11!F6</f>
+        <v>4427.0201211809099</v>
+      </c>
+      <c r="P9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>Week10</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="1"/>
+        <v>4537.8399923503803</v>
+      </c>
+      <c r="R9" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" s="9">
-        <f>Week1!G9</f>
-        <v>3.1166950650855507</v>
-      </c>
-      <c r="C10" s="9">
-        <f>Week2!G9</f>
-        <v>3.8410643294795994</v>
-      </c>
-      <c r="D10" s="9">
-        <f>Week3!G9</f>
-        <v>2.4402762304876608</v>
-      </c>
-      <c r="E10" s="9">
-        <f>Week4!G9</f>
-        <v>7.2904476793051065E-2</v>
-      </c>
-      <c r="F10" s="9">
-        <f>Week5!G9</f>
-        <v>0.25115647550397896</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="9">
-        <f>Week2!H2</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <f>Week3!H2</f>
-        <v>-2.0605739337042905E-11</v>
-      </c>
-      <c r="E15" s="9">
-        <f>Week4!H2</f>
-        <v>2.0605739337042905E-11</v>
-      </c>
-      <c r="F15" s="9">
-        <f>Week5!H2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="9">
-        <f>Week2!H3</f>
-        <v>-72.922388606012404</v>
-      </c>
-      <c r="D16" s="9">
-        <f>Week3!H3</f>
-        <v>-17.928655483409521</v>
-      </c>
-      <c r="E16" s="9">
-        <f>Week4!H3</f>
-        <v>15.200916021135011</v>
-      </c>
-      <c r="F16" s="9">
-        <f>Week5!H3</f>
-        <v>-84.281588360624838</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="9">
-        <f>Week2!H4</f>
-        <v>61.23709825846268</v>
-      </c>
-      <c r="D17" s="9">
-        <f>Week3!H4</f>
-        <v>-5.5637742370747105</v>
-      </c>
-      <c r="E17" s="9">
-        <f>Week4!H4</f>
-        <v>28.672086202322021</v>
-      </c>
-      <c r="F17" s="9">
-        <f>Week5!H4</f>
-        <v>-28.024054716724663</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="9">
-        <f>Week2!H5</f>
-        <v>-55.331598047906311</v>
-      </c>
-      <c r="D18" s="9">
-        <f>Week3!H5</f>
-        <v>-5.9791369475719094</v>
-      </c>
-      <c r="E18" s="9">
-        <f>Week4!H5</f>
-        <v>-36.19899894219548</v>
-      </c>
-      <c r="F18" s="9">
-        <f>Week5!H5</f>
-        <v>-1.9414621250902258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19">
-        <v>5</v>
-      </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" s="9">
-        <f>Week2!H6</f>
-        <v>5.9903227386689233</v>
-      </c>
-      <c r="D19" s="9">
-        <f>Week3!H6</f>
-        <v>-44.926467751340716</v>
-      </c>
-      <c r="E19" s="9">
-        <f>Week4!H6</f>
-        <v>17.294511123215599</v>
-      </c>
-      <c r="F19" s="9">
-        <f>Week5!H6</f>
-        <v>7.2049915686589401</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20">
         <v>6</v>
       </c>
-      <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="9">
-        <f>Week2!H7</f>
-        <v>50.205694360719335</v>
-      </c>
-      <c r="D20" s="9">
-        <f>Week3!H7</f>
-        <v>-6.722308181133819</v>
-      </c>
-      <c r="E20" s="9">
-        <f>Week4!H7</f>
-        <v>-0.48319185347925497</v>
-      </c>
-      <c r="F20" s="9">
-        <f>Week5!H7</f>
-        <v>17.616399661485438</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
-      <c r="A21">
-        <v>7</v>
-      </c>
-      <c r="B21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="9">
-        <f>Week2!H8</f>
-        <v>-44.469606481807517</v>
-      </c>
-      <c r="D21" s="9">
-        <f>Week3!H8</f>
-        <v>-19.390811302664815</v>
-      </c>
-      <c r="E21" s="9">
-        <f>Week4!H8</f>
-        <v>-9.0729029212903214</v>
-      </c>
-      <c r="F21" s="9">
-        <f>Week5!H8</f>
-        <v>19.857000765088923</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
-      <c r="A22">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="9">
-        <f>Week2!H9</f>
-        <v>0.7243692643940487</v>
-      </c>
-      <c r="D22" s="9">
-        <f>Week3!H9</f>
-        <v>1.4007880989919386</v>
-      </c>
-      <c r="E22" s="9">
-        <f>Week4!H9</f>
-        <v>2.3673717536946097</v>
-      </c>
-      <c r="F22" s="9">
-        <f>Week5!H9</f>
-        <v>-0.17825199871092789</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
-      <c r="D25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" t="s">
-        <v>71</v>
-      </c>
-      <c r="K26" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" t="s">
-        <v>73</v>
-      </c>
-      <c r="M26" t="s">
-        <v>74</v>
-      </c>
-      <c r="P26" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>76</v>
-      </c>
-      <c r="R26" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3">
-        <f>Week1!F2</f>
-        <v>1.5192269382386801E-55</v>
-      </c>
-      <c r="C27" s="3">
-        <f>Week2!F2</f>
-        <v>5.6241271475019997E-35</v>
-      </c>
-      <c r="D27" s="3">
-        <f>Week3!F2</f>
-        <v>-1.58899575668444E-28</v>
-      </c>
-      <c r="E27" s="3">
-        <f>Week4!F2</f>
-        <v>-1.9365253523356699E-32</v>
-      </c>
-      <c r="F27" s="3">
-        <f>Week5!F2</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <f>Week6!F2</f>
-        <v>-2.4207951479406601E-51</v>
-      </c>
-      <c r="H27" s="3">
-        <f>Week7!F2</f>
-        <v>2.45415370407854E-54</v>
-      </c>
-      <c r="I27" s="3">
-        <f>Week8!F2</f>
-        <v>1.55842898547174E-23</v>
-      </c>
-      <c r="J27" s="3">
-        <f>Week9!F2</f>
-        <v>5.2647530338544495E-57</v>
-      </c>
-      <c r="K27" s="3">
-        <f>Week10!F2</f>
-        <v>1.7063022014990999E-17</v>
-      </c>
-      <c r="P27" s="3" t="str">
-        <f>INDEX($B$26:$M$26, MATCH(MAX(B27:M27), B27:M27, 0))</f>
-        <v>Week10</v>
-      </c>
-      <c r="Q27" s="3">
-        <f>MAX(B27:M27)</f>
-        <v>1.7063022014990999E-17</v>
-      </c>
-      <c r="R27" s="14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="17">
-      <c r="A28">
-        <v>2</v>
-      </c>
-      <c r="B28" s="3">
-        <f>Week1!F3</f>
-        <v>7.8279871043669E-2</v>
-      </c>
-      <c r="C28" s="3">
-        <f>Week2!F3</f>
-        <v>0.52398534129501795</v>
-      </c>
-      <c r="D28" s="3">
-        <f>Week3!F3</f>
-        <v>0.41440446386451901</v>
-      </c>
-      <c r="E28" s="3">
-        <f>Week4!F3</f>
-        <v>0.50731325542921302</v>
-      </c>
-      <c r="F28" s="3">
-        <f>Week5!F3</f>
-        <v>-7.8202085575153398E-3</v>
-      </c>
-      <c r="G28" s="3">
-        <f>Week6!F3</f>
-        <v>0.56924086824543896</v>
-      </c>
-      <c r="H28" s="3">
-        <f>Week7!F3</f>
-        <v>0.19283512655684401</v>
-      </c>
-      <c r="I28" s="3">
-        <f>Week8!F3</f>
-        <v>0.147156885668869</v>
-      </c>
-      <c r="J28" s="3">
-        <f>Week9!F3</f>
-        <v>0.63564435544545905</v>
-      </c>
-      <c r="K28" s="3">
-        <f>Week10!F3</f>
-        <v>0.72074952220389799</v>
-      </c>
-      <c r="P28" s="3" t="str">
-        <f t="shared" ref="P28:P34" si="0">INDEX($B$26:$M$26, MATCH(MAX(B28:M28), B28:M28, 0))</f>
-        <v>Week10</v>
-      </c>
-      <c r="Q28" s="3">
-        <f t="shared" ref="Q28:Q34" si="1">MAX(B28:M28)</f>
-        <v>0.72074952220389799</v>
-      </c>
-      <c r="R28" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="17">
-      <c r="A29">
-        <v>3</v>
-      </c>
-      <c r="B29" s="3">
-        <f>Week1!F4</f>
-        <v>-4.2583435652523802E-2</v>
-      </c>
-      <c r="C29" s="3">
-        <f>Week2!F4</f>
-        <v>-7.1645825427363698E-3</v>
-      </c>
-      <c r="D29" s="3">
-        <f>Week3!F4</f>
-        <v>-4.77535808487883E-2</v>
-      </c>
-      <c r="E29" s="3">
-        <f>Week4!F4</f>
-        <v>-1.64041892396753E-2</v>
-      </c>
-      <c r="F29" s="3">
-        <f>Week5!F4</f>
-        <v>-4.5776372069054702E-2</v>
-      </c>
-      <c r="G29" s="3">
-        <f>Week6!F4</f>
-        <v>-4.4074741745635797E-2</v>
-      </c>
-      <c r="H29" s="3">
-        <f>Week7!F4</f>
-        <v>-3.3040646100640003E-2</v>
-      </c>
-      <c r="I29" s="3">
-        <f>Week8!F4</f>
-        <v>-5.44952338148788E-2</v>
-      </c>
-      <c r="J29" s="3">
-        <f>Week9!F4</f>
-        <v>-2.6296009521582001E-3</v>
-      </c>
-      <c r="K29" s="3">
-        <f>Week10!F4</f>
-        <v>-2.8096226155954401E-2</v>
-      </c>
-      <c r="P29" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Week9</v>
-      </c>
-      <c r="Q29" s="3">
-        <f t="shared" si="1"/>
-        <v>-2.6296009521582001E-3</v>
-      </c>
-      <c r="R29" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
-      <c r="A30">
-        <v>4</v>
-      </c>
-      <c r="B30" s="3">
-        <f>Week1!F5</f>
-        <v>-0.281966339453947</v>
-      </c>
-      <c r="C30" s="3">
-        <f>Week2!F5</f>
-        <v>-2.50936323387395</v>
-      </c>
-      <c r="D30" s="3">
-        <f>Week3!F5</f>
-        <v>-2.2686705479562499</v>
-      </c>
-      <c r="E30" s="3">
-        <f>Week4!F5</f>
-        <v>-0.81146453991068301</v>
-      </c>
-      <c r="F30" s="3">
-        <f>Week5!F5</f>
-        <v>-1.5478681188544401</v>
-      </c>
-      <c r="G30" s="3">
-        <f>Week6!F5</f>
-        <v>-1.2401877238019301</v>
-      </c>
-      <c r="H30" s="3">
-        <f>Week7!F5</f>
-        <v>0.57749759425457003</v>
-      </c>
-      <c r="I30" s="3">
-        <f>Week8!F5</f>
-        <v>0.38876268954520699</v>
-      </c>
-      <c r="J30" s="3">
-        <f>Week9!F5</f>
-        <v>0.57701270290822404</v>
-      </c>
-      <c r="K30" s="3">
-        <f>Week10!F5</f>
-        <v>-1.0498889373006599</v>
-      </c>
-      <c r="P30" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Week7</v>
-      </c>
-      <c r="Q30" s="3">
-        <f t="shared" si="1"/>
-        <v>0.57749759425457003</v>
-      </c>
-      <c r="R30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
-      <c r="A31">
-        <v>5</v>
-      </c>
-      <c r="B31" s="3">
-        <f>Week1!F6</f>
-        <v>1035.78336893086</v>
-      </c>
-      <c r="C31" s="3">
-        <f>Week2!F6</f>
-        <v>1221.5705853873001</v>
-      </c>
-      <c r="D31" s="3">
-        <f>Week3!F6</f>
-        <v>2763.1361350550201</v>
-      </c>
-      <c r="E31" s="3">
-        <f>Week4!F6</f>
-        <v>1699.44147161398</v>
-      </c>
-      <c r="F31" s="3">
-        <f>Week5!F6</f>
-        <v>4021.5011695428002</v>
-      </c>
-      <c r="G31" s="3">
-        <f>Week6!F6</f>
-        <v>1938.943267221</v>
-      </c>
-      <c r="H31" s="3">
-        <f>Week7!F6</f>
-        <v>4310.9805594415402</v>
-      </c>
-      <c r="I31" s="3">
-        <f>Week8!F6</f>
-        <v>4158.7866946484401</v>
-      </c>
-      <c r="J31" s="3">
-        <f>Week9!F6</f>
-        <v>4189.1605631845196</v>
-      </c>
-      <c r="K31" s="3">
-        <f>Week10!F6</f>
-        <v>4537.8399923503803</v>
-      </c>
-      <c r="P31" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>Week10</v>
-      </c>
-      <c r="Q31" s="3">
-        <f t="shared" si="1"/>
-        <v>4537.8399923503803</v>
-      </c>
-      <c r="R31" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="A32">
-        <v>6</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="B10" s="3">
         <f>Week1!F7</f>
         <v>-0.74650183034008499</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C10" s="3">
         <f>Week2!F7</f>
         <v>-0.32481759704902602</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D10" s="3">
         <f>Week3!F7</f>
         <v>-0.83816374113646996</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E10" s="3">
         <f>Week4!F7</f>
         <v>-0.12430862230397099</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F10" s="3">
         <f>Week5!F7</f>
         <v>-0.22242976401612999</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G10" s="3">
         <f>Week6!F7</f>
         <v>-0.20723711476707399</v>
       </c>
-      <c r="H32" s="3">
+      <c r="H10" s="3">
         <f>Week7!F7</f>
         <v>-0.15947669058205399</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I10" s="3">
         <f>Week8!F7</f>
         <v>-0.28274379072022199</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J10" s="3">
         <f>Week9!F7</f>
         <v>-0.14749973636875199</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K10" s="3">
         <f>Week10!F7</f>
         <v>-0.222075655316051</v>
       </c>
-      <c r="P32" s="3" t="str">
+      <c r="L10" s="3">
+        <f>Week11!F7</f>
+        <v>-0.31585929101590399</v>
+      </c>
+      <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week4</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q10" s="3">
         <f t="shared" si="1"/>
         <v>-0.12430862230397099</v>
       </c>
-      <c r="R32" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18">
-      <c r="A33">
+      <c r="R10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
         <v>7</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B11" s="3">
         <f>Week1!F8</f>
         <v>0.62260078986399703</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C11" s="3">
         <f>Week2!F8</f>
         <v>1.51524322953832</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D11" s="3">
         <f>Week3!F8</f>
         <v>1.0711503490830101</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E11" s="3">
         <f>Week4!F8</f>
         <v>0.93367380184557403</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F11" s="3">
         <f>Week5!F8</f>
         <v>1.85974769401657</v>
       </c>
-      <c r="G33" s="3">
+      <c r="G11" s="3">
         <f>Week6!F8</f>
         <v>1.88380795677045</v>
       </c>
-      <c r="H33" s="3">
+      <c r="H11" s="3">
         <f>Week7!F8</f>
         <v>1.8684324311018099</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I11" s="3">
         <f>Week8!F8</f>
         <v>1.4390676532540101</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J11" s="3">
         <f>Week9!F8</f>
         <v>1.7512570814124699</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K11" s="3">
         <f>Week10!F8</f>
         <v>1.92969449721477</v>
       </c>
-      <c r="P33" s="3" t="str">
+      <c r="L11" s="3">
+        <f>Week11!F8</f>
+        <v>2.2490463956487199</v>
+      </c>
+      <c r="P11" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Week10</v>
-      </c>
-      <c r="Q33" s="3">
+        <v>Week11</v>
+      </c>
+      <c r="Q11" s="3">
         <f t="shared" si="1"/>
-        <v>1.92969449721477</v>
-      </c>
-      <c r="R33" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18">
-      <c r="A34">
+        <v>2.2490463956487199</v>
+      </c>
+      <c r="R11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B12" s="3">
         <f>Week1!F9</f>
         <v>9.9072611183611006</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C12" s="3">
         <f>Week2!F9</f>
         <v>9.5267168451680995</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D12" s="3">
         <f>Week3!F9</f>
         <v>9.6654965798450991</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E12" s="3">
         <f>Week4!F9</f>
         <v>9.9000382811173999</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F12" s="3">
         <f>Week5!F9</f>
         <v>9.9322064977795996</v>
       </c>
-      <c r="G34" s="3">
+      <c r="G12" s="3">
         <f>Week6!F9</f>
         <v>9.9707717627203998</v>
       </c>
-      <c r="H34" s="3">
+      <c r="H12" s="3">
         <f>Week7!F9</f>
         <v>9.9515462235145993</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I12" s="3">
         <f>Week8!F9</f>
         <v>9.9534885233509005</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J12" s="3">
         <f>Week9!F9</f>
         <v>6.4336900000000004</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K12" s="3">
         <f>Week10!F9</f>
         <v>9.9444201092011006</v>
       </c>
-      <c r="P34" s="3" t="str">
+      <c r="L12" s="3">
+        <f>Week11!F9</f>
+        <v>9.9354315173545995</v>
+      </c>
+      <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week6</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q12" s="3">
         <f t="shared" si="1"/>
         <v>9.9707717627203998</v>
       </c>
-      <c r="R34" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="D37" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18">
-      <c r="A38" t="s">
+      <c r="R12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="D15" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B16" t="s">
         <v>31</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D16" t="s">
         <v>33</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E16" t="s">
         <v>34</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G16" t="s">
         <v>36</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
         <v>69</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L16" t="s">
         <v>70</v>
       </c>
-      <c r="J38" t="s">
+      <c r="M16" t="s">
         <v>71</v>
       </c>
-      <c r="K38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L38" t="s">
-        <v>73</v>
-      </c>
-      <c r="M38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="34">
-      <c r="A39">
+    </row>
+    <row r="17" spans="1:13" ht="34">
+      <c r="A17">
         <v>1</v>
       </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J39" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K39" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="21" customHeight="1">
-      <c r="A40">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" customHeight="1">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" t="s">
-        <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J40" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K40" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" ht="23" customHeight="1">
-      <c r="A41">
+      <c r="B18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" t="s">
+        <v>76</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="23" customHeight="1">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J41" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K41" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="19" customHeight="1">
-      <c r="A42">
+      <c r="B19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="19" customHeight="1">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B42" t="s">
-        <v>78</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="G42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="I42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K42" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" s="14" customFormat="1" ht="23" customHeight="1">
-      <c r="A43" s="14">
+      <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="23" customHeight="1">
+      <c r="A21" s="13">
         <v>5</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E43" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I43" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="J43" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K43" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L43" s="14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="17">
-      <c r="A44">
+      <c r="B21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="17">
+      <c r="A22">
         <v>6</v>
       </c>
-      <c r="B44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" t="s">
-        <v>78</v>
-      </c>
-      <c r="D44" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F44" t="s">
-        <v>79</v>
-      </c>
-      <c r="G44" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J44" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K44" t="s">
-        <v>79</v>
-      </c>
-      <c r="L44" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="17">
-      <c r="A45">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" t="s">
+        <v>76</v>
+      </c>
+      <c r="M22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="17">
+      <c r="A23">
         <v>7</v>
       </c>
-      <c r="B45" t="s">
-        <v>78</v>
-      </c>
-      <c r="C45" t="s">
-        <v>78</v>
-      </c>
-      <c r="D45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" t="s">
-        <v>79</v>
-      </c>
-      <c r="G45" t="s">
-        <v>79</v>
-      </c>
-      <c r="H45" t="s">
-        <v>79</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K45" t="s">
-        <v>79</v>
-      </c>
-      <c r="L45" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="17">
-      <c r="A46">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K23" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="17">
+      <c r="A24">
         <v>8</v>
       </c>
-      <c r="B46" t="s">
-        <v>78</v>
-      </c>
-      <c r="C46" t="s">
-        <v>78</v>
-      </c>
-      <c r="D46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" t="s">
-        <v>79</v>
-      </c>
-      <c r="F46" t="s">
-        <v>79</v>
-      </c>
-      <c r="G46" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="J46" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="K46" t="s">
-        <v>79</v>
-      </c>
-      <c r="L46" t="s">
-        <v>79</v>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>76</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="K24" t="s">
+        <v>76</v>
+      </c>
+      <c r="L24" t="s">
+        <v>76</v>
+      </c>
+      <c r="M24" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:R1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2485,16 +2098,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -2506,13 +2119,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19">
@@ -2522,13 +2135,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="4">
@@ -2543,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>2.1552763417276701E-4</v>
       </c>
       <c r="K2">
@@ -2558,13 +2171,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="12">
         <v>0.61120521576144304</v>
       </c>
       <c r="F3" s="5">
@@ -2578,7 +2191,7 @@
         <f xml:space="preserve"> Week4!G3 - Week9!G3</f>
         <v>13.153103117515318</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>0.41421500528851501</v>
       </c>
       <c r="K3">
@@ -2593,13 +2206,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="C4" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="12">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F4" s="5">
@@ -2613,7 +2226,7 @@
         <f xml:space="preserve"> Week4!G4 - Week9!G4</f>
         <v>-6.9725426609050558</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>-4.6199868011901598E-3</v>
       </c>
       <c r="K4">
@@ -2628,13 +2241,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>0.57749759425457003</v>
       </c>
       <c r="F5" s="5">
@@ -2648,7 +2261,7 @@
         <f xml:space="preserve"> Week4!G5 - Week9!G5</f>
         <v>79.758141934780198</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>0.64593201475483397</v>
       </c>
       <c r="K5">
@@ -2663,13 +2276,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="C6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E6" s="12">
         <v>4310.9805594415402</v>
       </c>
       <c r="F6" s="5">
@@ -2683,7 +2296,7 @@
         <f xml:space="preserve"> Week4!G6 - Week9!G6</f>
         <v>35.670112408505624</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>4196.1960363899398</v>
       </c>
       <c r="K6">
@@ -2698,13 +2311,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E7" s="12">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5">
@@ -2718,7 +2331,7 @@
         <f xml:space="preserve"> Week4!G7 - Week9!G7</f>
         <v>46.006897029549606</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>-0.225240846153381</v>
       </c>
       <c r="K7">
@@ -2733,13 +2346,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="C8" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E8" s="12">
         <v>1.88380795677045</v>
       </c>
       <c r="F8" s="5">
@@ -2753,7 +2366,7 @@
         <f xml:space="preserve"> Week4!G8 - Week9!G8</f>
         <v>31.344932617995575</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>1.7831573756904999</v>
       </c>
       <c r="K8">
@@ -2768,13 +2381,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="12">
         <v>9.9707717627203998</v>
       </c>
       <c r="F9" s="5">
@@ -2788,7 +2401,7 @@
         <f xml:space="preserve"> Week4!G9 - Week9!G9</f>
         <v>-35.401598870532105</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>10.055621427000901</v>
       </c>
       <c r="K9">
@@ -2798,21 +2411,21 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -2824,13 +2437,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
@@ -2840,9 +2453,9 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3"/>
       <c r="G14" s="8" t="e">
         <f>(ABS(E14 -F14)/MAX(ABS(E14),ABS(F14)) )* 100</f>
@@ -2852,7 +2465,7 @@
         <f xml:space="preserve"> Week3!G14 - Week9!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>2.1552763417276701E-4</v>
       </c>
     </row>
@@ -2863,9 +2476,9 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
       <c r="G15" s="8" t="e">
         <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
@@ -2875,7 +2488,7 @@
         <f xml:space="preserve"> Week3!G15 - Week9!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.41421500528851501</v>
       </c>
     </row>
@@ -2886,9 +2499,9 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="12"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
       <c r="G16" s="8" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -2897,7 +2510,7 @@
         <f xml:space="preserve"> Week3!G16 - Week9!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-4.6199868011901598E-3</v>
       </c>
     </row>
@@ -2908,9 +2521,9 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
       <c r="G17" s="8" t="e">
         <f t="shared" si="2"/>
@@ -2920,7 +2533,7 @@
         <f xml:space="preserve"> Week3!G17 - Week9!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.64593201475483397</v>
       </c>
     </row>
@@ -2931,9 +2544,9 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
       <c r="G18" s="8" t="e">
         <f t="shared" si="2"/>
@@ -2943,7 +2556,7 @@
         <f xml:space="preserve"> Week3!G18 - Week9!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>4196.1960363899398</v>
       </c>
     </row>
@@ -2954,9 +2567,9 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8" t="e">
         <f t="shared" si="2"/>
@@ -2966,7 +2579,7 @@
         <f xml:space="preserve"> Week3!G19 - Week9!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>-0.68032936100050401</v>
       </c>
     </row>
@@ -2977,9 +2590,9 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8" t="e">
         <f t="shared" si="2"/>
@@ -2989,7 +2602,7 @@
         <f xml:space="preserve"> Week3!G20 - Week9!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>1.15147506727585</v>
       </c>
     </row>
@@ -3000,9 +2613,9 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3012,27 +2625,27 @@
         <f xml:space="preserve"> Week3!G21 - Week9!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>9.4274088419550495</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -3044,16 +2657,16 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
@@ -3063,9 +2676,9 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="3"/>
       <c r="G28" s="8" t="e">
         <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
@@ -3075,7 +2688,7 @@
         <f xml:space="preserve"> Week3!G2 - Week9!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
     </row>
@@ -3086,9 +2699,9 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8" t="e">
         <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
@@ -3098,7 +2711,7 @@
         <f xml:space="preserve"> Week3!G3 - Week9!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.58391205395133206</v>
       </c>
     </row>
@@ -3109,9 +2722,9 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
       <c r="G30" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3120,7 +2733,7 @@
         <f xml:space="preserve"> Week3!G4 - Week9!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>-0.10027326290794999</v>
       </c>
     </row>
@@ -3131,9 +2744,9 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3143,7 +2756,7 @@
         <f xml:space="preserve"> Week3!G5 - Week9!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>-9.9621962834792299E-2</v>
       </c>
     </row>
@@ -3154,9 +2767,9 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3166,7 +2779,7 @@
         <f xml:space="preserve"> Week3!G6 - Week9!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>3327.9711854080501</v>
       </c>
     </row>
@@ -3177,9 +2790,9 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
       <c r="G33" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3189,7 +2802,7 @@
         <f xml:space="preserve"> Week3!G7 - Week9!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>-0.225240846153381</v>
       </c>
     </row>
@@ -3200,9 +2813,9 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="12"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3212,7 +2825,7 @@
         <f xml:space="preserve"> Week3!G8 - Week9!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>1.7831573756904999</v>
       </c>
     </row>
@@ -3223,9 +2836,9 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3235,7 +2848,7 @@
         <f xml:space="preserve"> Week3!G9 - Week9!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>10.055621427000901</v>
       </c>
     </row>
@@ -3248,8 +2861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9F4F33-0F72-E045-9A1C-A86F31202424}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3267,16 +2880,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -3288,13 +2901,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18">
@@ -3304,13 +2917,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="4">
@@ -3325,7 +2938,7 @@
         <v>2.2128515585602457</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>-1.82610597959317E-4</v>
       </c>
       <c r="K2">
@@ -3340,13 +2953,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E3" s="11">
         <v>0.63564435544545905</v>
       </c>
       <c r="F3" s="5">
@@ -3360,7 +2973,7 @@
         <f xml:space="preserve"> Week4!G3 - Week10!G3</f>
         <v>5.1900150842701791</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>0.680331821170302</v>
       </c>
       <c r="K3">
@@ -3375,13 +2988,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="12">
+      <c r="D4" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="11">
         <v>-2.6296009521582001E-3</v>
       </c>
       <c r="F4" s="5">
@@ -3395,7 +3008,7 @@
         <f xml:space="preserve"> Week4!G4 - Week10!G4</f>
         <v>-34.316054971512727</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>-1.53417251817563E-2</v>
       </c>
       <c r="K4">
@@ -3410,13 +3023,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="11">
         <v>0.57749759425457003</v>
       </c>
       <c r="F5" s="5">
@@ -3430,7 +3043,7 @@
         <f xml:space="preserve"> Week4!G5 - Week10!G5</f>
         <v>-75.163482888473581</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>0.52942733383851404</v>
       </c>
       <c r="K5">
@@ -3445,13 +3058,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="11">
         <v>4310.9805594415402</v>
       </c>
       <c r="F6" s="5">
@@ -3465,7 +3078,7 @@
         <f xml:space="preserve"> Week4!G6 - Week10!G6</f>
         <v>33.496637213798927</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>3773.9891608299399</v>
       </c>
       <c r="K6">
@@ -3480,13 +3093,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E7" s="12">
+      <c r="D7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E7" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5">
@@ -3500,7 +3113,7 @@
         <f xml:space="preserve"> Week4!G7 - Week10!G7</f>
         <v>17.705513263185914</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>-0.22564673102918401</v>
       </c>
       <c r="K7">
@@ -3515,13 +3128,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E8" s="11">
         <v>1.88380795677045</v>
       </c>
       <c r="F8" s="5">
@@ -3535,7 +3148,7 @@
         <f xml:space="preserve"> Week4!G8 - Week10!G8</f>
         <v>36.003341592721242</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>1.79243618860138</v>
       </c>
       <c r="K8">
@@ -3550,13 +3163,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E9" s="11">
         <v>9.9707717627203998</v>
       </c>
       <c r="F9" s="5">
@@ -3570,7 +3183,7 @@
         <f xml:space="preserve"> Week4!G9 - Week10!G9</f>
         <v>-0.19138452857587152</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>10.051246412332</v>
       </c>
       <c r="K9">
@@ -3580,21 +3193,21 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -3606,13 +3219,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
@@ -3622,13 +3235,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="C14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E14" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F14" s="3"/>
@@ -3640,7 +3253,7 @@
         <f xml:space="preserve"> Week3!G14 - Week10!G14</f>
         <v>#REF!</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>-1.82610597959317E-4</v>
       </c>
       <c r="K14" s="3"/>
@@ -3652,13 +3265,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.63564435544545905</v>
       </c>
       <c r="F15" s="5"/>
@@ -3670,7 +3283,7 @@
         <f xml:space="preserve"> Week3!G15 - Week10!G15</f>
         <v>-100</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.680331821170302</v>
       </c>
     </row>
@@ -3681,13 +3294,13 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="12">
+      <c r="D16" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="11">
         <v>-2.6296009521582001E-3</v>
       </c>
       <c r="G16" s="8">
@@ -3698,7 +3311,7 @@
         <f xml:space="preserve"> Week3!G16 - Week10!G16</f>
         <v>-100</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-1.53417251817563E-2</v>
       </c>
     </row>
@@ -3709,13 +3322,13 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.57749759425457003</v>
       </c>
       <c r="F17" s="5"/>
@@ -3727,7 +3340,7 @@
         <f xml:space="preserve"> Week3!G17 - Week10!G17</f>
         <v>-100</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.52942733383851404</v>
       </c>
     </row>
@@ -3738,13 +3351,13 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="11">
         <v>4310.9805594415402</v>
       </c>
       <c r="F18" s="5"/>
@@ -3756,7 +3369,7 @@
         <f xml:space="preserve"> Week3!G18 - Week10!G18</f>
         <v>-100</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>3773.9891608299399</v>
       </c>
     </row>
@@ -3767,9 +3380,9 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
       <c r="G19" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3779,7 +3392,7 @@
         <f xml:space="preserve"> Week3!G19 - Week10!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="12"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="18">
       <c r="A20">
@@ -3788,9 +3401,9 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5"/>
       <c r="G20" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3800,7 +3413,7 @@
         <f xml:space="preserve"> Week3!G20 - Week10!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="12"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:12" ht="18">
       <c r="A21">
@@ -3809,9 +3422,9 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
       <c r="G21" s="8" t="e">
         <f t="shared" si="2"/>
@@ -3821,25 +3434,25 @@
         <f xml:space="preserve"> Week3!G21 - Week10!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -3851,16 +3464,16 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
@@ -3870,9 +3483,9 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="3"/>
       <c r="G28" s="8" t="e">
         <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
@@ -3882,7 +3495,7 @@
         <f xml:space="preserve"> Week3!G2 - Week10!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="12"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="18">
       <c r="A29">
@@ -3891,9 +3504,9 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8" t="e">
         <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
@@ -3903,7 +3516,7 @@
         <f xml:space="preserve"> Week3!G3 - Week10!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="12"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="18">
       <c r="A30">
@@ -3912,9 +3525,9 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
       <c r="G30" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -3923,7 +3536,7 @@
         <f xml:space="preserve"> Week3!G4 - Week10!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="12"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:12" ht="18">
       <c r="A31">
@@ -3932,9 +3545,9 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3944,7 +3557,7 @@
         <f xml:space="preserve"> Week3!G5 - Week10!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="12"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="18">
       <c r="A32">
@@ -3953,9 +3566,9 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8" t="e">
         <f t="shared" si="3"/>
@@ -3965,7 +3578,7 @@
         <f xml:space="preserve"> Week3!G6 - Week10!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="12"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="18">
       <c r="A33">
@@ -3974,13 +3587,13 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="D33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="12">
+      <c r="D33" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F33" s="5"/>
@@ -3992,7 +3605,7 @@
         <f xml:space="preserve"> Week3!G7 - Week10!G33</f>
         <v>-38.753477525597134</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>-0.22564673102918401</v>
       </c>
     </row>
@@ -4003,13 +3616,13 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E34" s="11">
         <v>1.88380795677045</v>
       </c>
       <c r="F34" s="5"/>
@@ -4021,7 +3634,7 @@
         <f xml:space="preserve"> Week3!G8 - Week10!G34</f>
         <v>-70.691643968564648</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>1.79243618860138</v>
       </c>
     </row>
@@ -4032,13 +3645,13 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="C35" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="11">
         <v>9.9707717627203998</v>
       </c>
       <c r="F35" s="5"/>
@@ -4050,7 +3663,7 @@
         <f xml:space="preserve"> Week3!G9 - Week10!G35</f>
         <v>-97.559723769512345</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>10.051246412332</v>
       </c>
     </row>
@@ -4063,7 +3676,768 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0A6397-1792-FC49-8FB0-C74C348251FE}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="86.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E2" s="10">
+        <v>7.7108751145028402E-16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5.3199374410186903E-77</v>
+      </c>
+      <c r="G2" s="8">
+        <f>(ABS(E2 -F2)/MAX(ABS(E2),ABS(F2)) )* 100</f>
+        <v>100</v>
+      </c>
+      <c r="H2" s="8">
+        <f xml:space="preserve"> Week4!G2 - Week11!G2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="11">
+        <v>-1.4302305791296299E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0.72074952220389799</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.59041015345404801</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G9" si="0">(ABS(E3 -F3)/MAX(ABS(E3),ABS(F3)) )* 100</f>
+        <v>18.083864745591509</v>
+      </c>
+      <c r="H3" s="8">
+        <f xml:space="preserve"> Week4!G3 - Week11!G3</f>
+        <v>-1.0859796403734805</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.680331821170302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="11">
+        <v>-2.6296009521582001E-3</v>
+      </c>
+      <c r="F4" s="5">
+        <v>-2.4594206281152501E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="0"/>
+        <v>89.308047098176274</v>
+      </c>
+      <c r="H4" s="8">
+        <f xml:space="preserve"> Week4!G4 - Week11!G4</f>
+        <v>-32.983369529888137</v>
+      </c>
+      <c r="J4" s="11">
+        <v>-1.53417251817563E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.57749759425457003</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.32777233146964202</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="0"/>
+        <v>43.24264988623402</v>
+      </c>
+      <c r="H5" s="8">
+        <f xml:space="preserve"> Week4!G5 - Week11!G5</f>
+        <v>36.599456267820869</v>
+      </c>
+      <c r="J5" s="11">
+        <v>1.03862596115182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="18">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="11">
+        <v>4537.8399923503803</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4427.0201211809099</v>
+      </c>
+      <c r="G6" s="8">
+        <f t="shared" si="0"/>
+        <v>2.4421282230374786</v>
+      </c>
+      <c r="H6" s="8">
+        <f xml:space="preserve"> Week4!G6 - Week11!G6</f>
+        <v>36.053791320928802</v>
+      </c>
+      <c r="J6" s="11">
+        <v>4531.9910287256898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="11">
+        <v>-0.12430862230397099</v>
+      </c>
+      <c r="F7" s="5">
+        <v>-0.31585929101590399</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="0"/>
+        <v>60.644304017730519</v>
+      </c>
+      <c r="H7" s="8">
+        <f xml:space="preserve"> Week4!G7 - Week11!G7</f>
+        <v>1.0854103101516017</v>
+      </c>
+      <c r="J7" s="11">
+        <v>-0.24925084580634199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E8" s="11">
+        <v>1.92969449721477</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2.2490463956487199</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="0"/>
+        <v>14.199435772059084</v>
+      </c>
+      <c r="H8" s="8">
+        <f xml:space="preserve"> Week4!G8 - Week11!G8</f>
+        <v>24.181823180666584</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.82254519575486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="18">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E9" s="11">
+        <v>9.9707717627203998</v>
+      </c>
+      <c r="F9" s="5">
+        <v>9.9354315173545995</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.35443841466649051</v>
+      </c>
+      <c r="H9" s="8">
+        <f xml:space="preserve"> Week4!G9 - Week11!G9</f>
+        <v>-0.28153393787343944</v>
+      </c>
+      <c r="J9" s="11">
+        <v>10.0604203159638</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="10">
+        <v>7.7108751145028402E-16</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8" t="e">
+        <f>(ABS(#REF! -F14)/MAX(ABS(#REF!),ABS(F14)) )* 100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H14" s="8" t="e">
+        <f xml:space="preserve"> Week3!G14 - Week11!G14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-1.4302305791296299E-4</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" ht="34">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0.72074952220389799</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8">
+        <f t="shared" ref="G15:G21" si="1">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
+        <v>100</v>
+      </c>
+      <c r="H15" s="8">
+        <f xml:space="preserve"> Week3!G15 - Week11!G15</f>
+        <v>-100</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.680331821170302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-2.6296009521582001E-3</v>
+      </c>
+      <c r="G16" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H16" s="8">
+        <f xml:space="preserve"> Week3!G16 - Week11!G16</f>
+        <v>-100</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-1.53417251817563E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="34">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="E17" s="11">
+        <v>0.57749759425457003</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H17" s="8">
+        <f xml:space="preserve"> Week3!G17 - Week11!G17</f>
+        <v>-100</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.03862596115182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="18">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>5</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="11">
+        <v>4537.8399923503803</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H18" s="8">
+        <f xml:space="preserve"> Week3!G18 - Week11!G18</f>
+        <v>-100</v>
+      </c>
+      <c r="J18" s="11">
+        <v>4531.9910287256898</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="18">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H19" s="8" t="e">
+        <f xml:space="preserve"> Week3!G19 - Week11!G19</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" ht="18">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H20" s="8" t="e">
+        <f xml:space="preserve"> Week3!G20 - Week11!G20</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" ht="18">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="8" t="e">
+        <f xml:space="preserve"> Week3!G21 - Week11!G21</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="18">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8" t="e">
+        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H28" s="8" t="e">
+        <f xml:space="preserve"> Week3!G2 - Week11!G28</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" ht="18">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8" t="e">
+        <f t="shared" ref="G29:G35" si="2">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H29" s="8" t="e">
+        <f xml:space="preserve"> Week3!G3 - Week11!G29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" ht="18">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H30" s="8" t="e">
+        <f xml:space="preserve"> Week3!G4 - Week11!G30</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" ht="18">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H31" s="8" t="e">
+        <f xml:space="preserve"> Week3!G5 - Week11!G31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" ht="18">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H32" s="8" t="e">
+        <f xml:space="preserve"> Week3!G6 - Week11!G32</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="18">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="8" t="e">
+        <f xml:space="preserve"> Week3!G7 - Week11!G33</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="18">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="8" t="e">
+        <f xml:space="preserve"> Week3!G8 - Week11!G34</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="18">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="8" t="e">
+        <f xml:space="preserve"> Week3!G9 - Week11!G35</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2813DB47-A948-6147-8853-803046178ACE}">
+  <dimension ref="A1:L35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -4082,16 +4456,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -4103,13 +4477,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34">
@@ -4120,12 +4494,12 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E2" s="11">
+        <v>202</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="4"/>
@@ -4134,12 +4508,12 @@
         <v>100</v>
       </c>
       <c r="H2" s="8">
-        <f xml:space="preserve"> Week4!G2 - Week11!G2</f>
+        <f xml:space="preserve"> Week4!G2 - Week12!G2</f>
         <v>0</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="12">
-        <v>-1.4302305791296299E-4</v>
+        <v>-1.64992914839572E-4</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34">
@@ -4150,10 +4524,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>192</v>
+        <v>88</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="E3" s="12">
         <v>0.72074952220389799</v>
@@ -4164,11 +4538,11 @@
         <v>100</v>
       </c>
       <c r="H3" s="8">
-        <f xml:space="preserve"> Week4!G3 - Week11!G3</f>
+        <f xml:space="preserve"> Week4!G3 - Week12!G3</f>
         <v>-83.002114894781968</v>
       </c>
       <c r="J3" s="12">
-        <v>0.680331821170302</v>
+        <v>0.51966319858133303</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="34">
@@ -4179,10 +4553,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>192</v>
+        <v>203</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="E4" s="12">
         <v>-2.6296009521582001E-3</v>
@@ -4193,11 +4567,11 @@
         <v>100</v>
       </c>
       <c r="H4" s="8">
-        <f xml:space="preserve"> Week4!G4 - Week11!G4</f>
+        <f xml:space="preserve"> Week4!G4 - Week12!G4</f>
         <v>-43.675322431711862</v>
       </c>
       <c r="J4" s="12">
-        <v>-1.53417251817563E-2</v>
+        <v>-3.1325207106162899E-2</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="34">
@@ -4208,10 +4582,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>194</v>
+        <v>205</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>204</v>
       </c>
       <c r="E5" s="12">
         <v>0.57749759425457003</v>
@@ -4222,14 +4596,14 @@
         <v>100</v>
       </c>
       <c r="H5" s="8">
-        <f xml:space="preserve"> Week4!G5 - Week11!G5</f>
+        <f xml:space="preserve"> Week4!G5 - Week12!G5</f>
         <v>-20.157893845945111</v>
       </c>
       <c r="J5" s="12">
-        <v>1.03862596115182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18">
+        <v>0.41872687865768998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4237,25 +4611,25 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>196</v>
+        <v>209</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>206</v>
       </c>
       <c r="E6" s="12">
         <v>4537.8399923503803</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H6" s="8">
-        <f xml:space="preserve"> Week4!G6 - Week11!G6</f>
-        <v>-61.504080456033719</v>
+      <c r="G6" s="8" t="e">
+        <f>(ABS(#REF! -F6)/MAX(ABS(#REF!),ABS(F6)) )* 100</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H6" s="8" t="e">
+        <f xml:space="preserve"> Week4!G6 - Week12!G6</f>
+        <v>#REF!</v>
       </c>
       <c r="J6" s="12">
-        <v>4531.9910287256898</v>
+        <v>4421.1522667277904</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="18">
@@ -4266,25 +4640,25 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>198</v>
+        <v>210</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="E7" s="12">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
+        <f>(ABS(E6 -F7)/MAX(ABS(E6),ABS(F7)) )* 100</f>
         <v>100</v>
       </c>
       <c r="H7" s="8">
-        <f xml:space="preserve"> Week4!G7 - Week11!G7</f>
+        <f xml:space="preserve"> Week4!G7 - Week12!G7</f>
         <v>-38.270285672117879</v>
       </c>
       <c r="J7" s="12">
-        <v>-0.24925084580634199</v>
+        <v>-0.24964000789294799</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="18">
@@ -4295,13 +4669,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>200</v>
+        <v>211</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>197</v>
       </c>
       <c r="E8" s="12">
-        <v>1.92969449721477</v>
+        <v>2.2490463956487199</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="8">
@@ -4309,11 +4683,11 @@
         <v>100</v>
       </c>
       <c r="H8" s="8">
-        <f xml:space="preserve"> Week4!G8 - Week11!G8</f>
+        <f xml:space="preserve"> Week4!G8 - Week12!G8</f>
         <v>-61.618741047274334</v>
       </c>
       <c r="J8" s="12">
-        <v>1.82254519575486</v>
+        <v>2.0903271465819602</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="18">
@@ -4324,10 +4698,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>202</v>
+        <v>212</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="E9" s="12">
         <v>9.9707717627203998</v>
@@ -4338,466 +4712,181 @@
         <v>100</v>
       </c>
       <c r="H9" s="8">
-        <f xml:space="preserve"> Week4!G9 - Week11!G9</f>
+        <f xml:space="preserve"> Week4!G9 - Week12!G9</f>
         <v>-99.927095523206944</v>
       </c>
       <c r="J9" s="12">
-        <v>10.0604203159638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
+        <v>10.046887488720801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="J10" s="12"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="34">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E14" s="11">
-        <v>7.7108751145028402E-16</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="18">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8" t="e">
-        <f>(ABS(#REF! -F14)/MAX(ABS(#REF!),ABS(F14)) )* 100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="8" t="e">
-        <f xml:space="preserve"> Week3!G14 - Week11!G14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="12">
-        <v>-1.4302305791296299E-4</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="34">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0.72074952220389799</v>
-      </c>
+    <row r="15" spans="1:11" ht="18">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="1">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week11!G15</f>
-        <v>-100</v>
-      </c>
-      <c r="J15" s="12">
-        <v>0.680331821170302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="34">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="E16" s="12">
-        <v>-2.6296009521582001E-3</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week11!G16</f>
-        <v>-100</v>
-      </c>
-      <c r="J16" s="12">
-        <v>-1.53417251817563E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="34">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0.57749759425457003</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" ht="18">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="3:12" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week11!G17</f>
-        <v>-100</v>
-      </c>
-      <c r="J17" s="12">
-        <v>1.03862596115182</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="12">
-        <v>4537.8399923503803</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="3:12" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week11!G18</f>
-        <v>-100</v>
-      </c>
-      <c r="J18" s="12">
-        <v>4531.9910287256898</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="3:12" ht="18">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="8" t="e">
-        <f xml:space="preserve"> Week3!G19 - Week11!G19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J19" s="12"/>
-    </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="3:12" ht="18">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="8" t="e">
-        <f xml:space="preserve"> Week3!G20 - Week11!G20</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="12"/>
-    </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="3:12" ht="18">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8" t="e">
-        <f xml:space="preserve"> Week3!G21 - Week11!G21</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="27" spans="3:12">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f xml:space="preserve"> Week3!G2 - Week11!G28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J28" s="12"/>
-    </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="3:12" ht="18">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8" t="e">
-        <f t="shared" ref="G29:G35" si="2">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f xml:space="preserve"> Week3!G3 - Week11!G29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J29" s="12"/>
-    </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="12"/>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f xml:space="preserve"> Week3!G4 - Week11!G30</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="12"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="3:12" ht="18">
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="3:12" ht="18">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f xml:space="preserve"> Week3!G5 - Week11!G31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="3:12" ht="18">
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="8" t="e">
-        <f xml:space="preserve"> Week3!G6 - Week11!G32</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J32" s="12"/>
-    </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="12"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="3:10" ht="18">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="8" t="e">
-        <f xml:space="preserve"> Week3!G7 - Week11!G33</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J33" s="12"/>
-    </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="E34" s="12"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="3:10" ht="18">
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="8" t="e">
-        <f xml:space="preserve"> Week3!G8 - Week11!G34</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="12"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="3:10" ht="18">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="8" t="e">
-        <f xml:space="preserve"> Week3!G9 - Week11!G35</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J35" s="12"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,7 +4913,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4833,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -4859,7 +4948,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>7.7108751145028402E-16</v>
@@ -4887,7 +4976,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0.611205</v>
@@ -4911,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4">
         <v>-3.4834999999999998E-2</v>
@@ -5072,16 +5161,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -5093,7 +5182,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -5109,8 +5198,8 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>41</v>
+      <c r="D2" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E2" s="3">
         <v>7.7108751145028402E-16</v>
@@ -5127,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18">
@@ -5140,8 +5229,8 @@
       <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>41</v>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E3">
         <v>0.61120521576144304</v>
@@ -5168,8 +5257,8 @@
       <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>41</v>
+      <c r="D4" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="E4">
         <v>-3.4835313350078501E-2</v>
@@ -5353,16 +5442,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -5374,7 +5463,7 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
@@ -5388,10 +5477,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="10" t="s">
         <v>44</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>43</v>
       </c>
       <c r="E2">
         <v>7.7108751145028402E-16</v>
@@ -5416,10 +5505,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>47</v>
       </c>
       <c r="E3">
         <v>0.61120521576144304</v>
@@ -5444,10 +5533,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="10" t="s">
         <v>47</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="E4">
         <v>-7.1645825427363698E-3</v>
@@ -5472,10 +5561,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>-4.0255422819081597</v>
@@ -5500,10 +5589,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>1221.5705853873001</v>
@@ -5528,10 +5617,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>-0.32481759704902602</v>
@@ -5556,10 +5645,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <v>1.51524322953832</v>
@@ -5584,10 +5673,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9">
         <v>9.9072611179999992</v>
@@ -5632,16 +5721,16 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -5653,13 +5742,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18">
@@ -5670,10 +5759,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E2">
         <v>7.7108751145028402E-16</v>
@@ -5689,7 +5778,7 @@
         <f xml:space="preserve"> Week3!G2 - Week4!G2</f>
         <v>2.0605739337042905E-11</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
     </row>
@@ -5701,10 +5790,10 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="10" t="s">
         <v>58</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E3">
         <v>0.61120521576144304</v>
@@ -5720,7 +5809,7 @@
         <f xml:space="preserve"> Week3!G3 - Week4!G3</f>
         <v>15.200916021135011</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>0.46072066333868</v>
       </c>
     </row>
@@ -5732,10 +5821,10 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E4">
         <v>-7.1645825427363698E-3</v>
@@ -5751,7 +5840,7 @@
         <f xml:space="preserve"> Week3!G4 - Week4!G4</f>
         <v>28.672086202322021</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>-9.7433678380296096E-2</v>
       </c>
     </row>
@@ -5763,10 +5852,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E5">
         <v>-4.0255422819081597</v>
@@ -5782,7 +5871,7 @@
         <f xml:space="preserve"> Week3!G5 - Week4!G5</f>
         <v>-36.19899894219548</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>-10.4785092215352</v>
       </c>
     </row>
@@ -5794,10 +5883,10 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E6">
         <v>2763.1361350550201</v>
@@ -5813,7 +5902,7 @@
         <f xml:space="preserve"> Week3!G6 - Week4!G6</f>
         <v>17.294511123215599</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>71.1123335074561</v>
       </c>
     </row>
@@ -5825,10 +5914,10 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E7">
         <v>-0.32481759704902602</v>
@@ -5844,7 +5933,7 @@
         <f xml:space="preserve"> Week3!G7 - Week4!G7</f>
         <v>-0.48319185347925497</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>-0.39794817050921</v>
       </c>
     </row>
@@ -5856,10 +5945,10 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E8">
         <v>1.51524322953832</v>
@@ -5875,7 +5964,7 @@
         <f xml:space="preserve"> Week3!G8 - Week4!G8</f>
         <v>-9.0729029212903214</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>1.21964629028306</v>
       </c>
     </row>
@@ -5887,10 +5976,10 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="E9">
         <v>9.9072611179999992</v>
@@ -5906,7 +5995,7 @@
         <f xml:space="preserve"> Week3!G9 - Week4!G9</f>
         <v>2.3673717536946097</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>10.4134816973233</v>
       </c>
     </row>
@@ -5919,8 +6008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF3468-E5E2-7948-A4E1-947E6B8EE90D}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5938,16 +6027,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -5959,13 +6048,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="18">
@@ -5975,13 +6064,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="5">
@@ -5995,7 +6084,7 @@
         <f xml:space="preserve"> Week4!G2 - Week5!G2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="12">
+      <c r="J2" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
       <c r="K2">
@@ -6010,13 +6099,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F3" s="5">
@@ -6030,7 +6119,7 @@
         <f xml:space="preserve"> Week4!G3 - Week5!G3</f>
         <v>-84.281588360624838</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3" s="11">
         <v>0.68333209087795699</v>
       </c>
       <c r="K3">
@@ -6045,13 +6134,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F4" s="5">
@@ -6065,7 +6154,7 @@
         <f xml:space="preserve"> Week4!G4 - Week5!G4</f>
         <v>-28.024054716724663</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="11">
         <v>-9.8524768373733695E-2</v>
       </c>
       <c r="K4">
@@ -6080,13 +6169,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F5" s="5">
@@ -6100,7 +6189,7 @@
         <f xml:space="preserve"> Week4!G5 - Week5!G5</f>
         <v>-1.9414621250902258</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="11">
         <v>-2.6775999454187599E-2</v>
       </c>
       <c r="K5">
@@ -6115,13 +6204,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="11">
         <v>2763.1361350550201</v>
       </c>
       <c r="F6" s="5">
@@ -6135,7 +6224,7 @@
         <f xml:space="preserve"> Week4!G6 - Week5!G6</f>
         <v>7.2049915686589401</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="11">
         <v>2749.3105785207699</v>
       </c>
       <c r="K6">
@@ -6150,13 +6239,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5">
@@ -6170,7 +6259,7 @@
         <f xml:space="preserve"> Week4!G7 - Week5!G7</f>
         <v>17.616399661485438</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="11">
         <v>-0.22304319416696899</v>
       </c>
       <c r="K7">
@@ -6185,13 +6274,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="11">
         <v>1.51524322953832</v>
       </c>
       <c r="F8" s="5">
@@ -6205,7 +6294,7 @@
         <f xml:space="preserve"> Week4!G8 - Week5!G8</f>
         <v>19.857000765088923</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>1.60727577099476</v>
       </c>
       <c r="K8">
@@ -6220,13 +6309,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="11">
         <v>9.9072611179999992</v>
       </c>
       <c r="F9" s="5">
@@ -6240,7 +6329,7 @@
         <f xml:space="preserve"> Week4!G9 - Week5!G9</f>
         <v>-0.17825199871092789</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>10.097162529346001</v>
       </c>
       <c r="K9">
@@ -6250,21 +6339,21 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -6276,13 +6365,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18">
@@ -6292,13 +6381,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="C14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F14" s="4"/>
@@ -6310,11 +6399,11 @@
         <f xml:space="preserve"> Week3!G14 - Week5!G14</f>
         <v>-100</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>-3.0089761721959998E-4</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18">
@@ -6324,13 +6413,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F15" s="5"/>
@@ -6342,11 +6431,11 @@
         <f xml:space="preserve"> Week3!G15 - Week5!G15</f>
         <v>-100</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.53632978518633201</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
@@ -6356,13 +6445,13 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F16" s="5"/>
@@ -6374,11 +6463,11 @@
         <f xml:space="preserve"> Week3!G16 - Week5!G16</f>
         <v>-100</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-9.8524768373733695E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18">
@@ -6388,13 +6477,13 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F17" s="5"/>
@@ -6406,11 +6495,11 @@
         <f xml:space="preserve"> Week3!G17 - Week5!G17</f>
         <v>-100</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>-2.6775999454187599E-2</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">
@@ -6420,13 +6509,13 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="11">
         <v>2763.1361350550201</v>
       </c>
       <c r="F18" s="5"/>
@@ -6438,11 +6527,11 @@
         <f xml:space="preserve"> Week3!G18 - Week5!G18</f>
         <v>-100</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>2749.3105785207699</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18">
@@ -6452,13 +6541,13 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C19" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F19" s="5"/>
@@ -6470,7 +6559,7 @@
         <f xml:space="preserve"> Week3!G19 - Week5!G19</f>
         <v>-100</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>-0.26032639590456003</v>
       </c>
     </row>
@@ -6481,13 +6570,13 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="11">
         <v>1.51524322953832</v>
       </c>
       <c r="F20" s="5"/>
@@ -6499,7 +6588,7 @@
         <f xml:space="preserve"> Week3!G20 - Week5!G20</f>
         <v>-100</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>1.34354021866531</v>
       </c>
     </row>
@@ -6510,13 +6599,13 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="10" t="s">
+      <c r="C21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E21" s="12">
+      <c r="D21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="11">
         <v>9.9072611179999992</v>
       </c>
       <c r="F21" s="5"/>
@@ -6528,27 +6617,27 @@
         <f xml:space="preserve"> Week3!G21 - Week5!G21</f>
         <v>-100</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>9.6219979540703697</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -6560,16 +6649,16 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
@@ -6579,13 +6668,13 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="C28" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F28" s="4"/>
@@ -6597,11 +6686,11 @@
         <f xml:space="preserve"> Week3!G2 - Week5!G28</f>
         <v>2.0605739337042905E-11</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
       <c r="L28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18">
@@ -6611,13 +6700,13 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="C29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F29" s="5"/>
@@ -6629,11 +6718,11 @@
         <f xml:space="preserve"> Week3!G3 - Week5!G29</f>
         <v>-67.801198873646968</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.68333209087795699</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18">
@@ -6643,13 +6732,13 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="C30" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F30" s="5"/>
@@ -6661,11 +6750,11 @@
         <f xml:space="preserve"> Week3!G4 - Week5!G30</f>
         <v>-15.003236229389842</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>-9.8524768373733695E-2</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18">
@@ -6675,13 +6764,13 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F31" s="5"/>
@@ -6693,11 +6782,11 @@
         <f xml:space="preserve"> Week3!G5 - Week5!G31</f>
         <v>-56.356892788140591</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>-0.83088497141966</v>
       </c>
       <c r="L31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18">
@@ -6707,13 +6796,13 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="E32" s="11">
         <v>2763.1361350550201</v>
       </c>
       <c r="F32" s="5"/>
@@ -6725,7 +6814,7 @@
         <f xml:space="preserve"> Week3!G6 - Week5!G32</f>
         <v>-44.20956933281812</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>144.11685025424401</v>
       </c>
     </row>
@@ -6736,13 +6825,13 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="C33" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F33" s="5"/>
@@ -6754,7 +6843,7 @@
         <f xml:space="preserve"> Week3!G7 - Week5!G33</f>
         <v>-38.753477525597134</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>-0.22304319416696899</v>
       </c>
     </row>
@@ -6765,13 +6854,13 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="11">
         <v>1.51524322953832</v>
       </c>
       <c r="F34" s="5"/>
@@ -6783,7 +6872,7 @@
         <f xml:space="preserve"> Week3!G8 - Week5!G34</f>
         <v>-70.691643968564648</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>1.60727577099476</v>
       </c>
     </row>
@@ -6794,13 +6883,13 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="C35" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="11">
         <v>9.9072611179999992</v>
       </c>
       <c r="F35" s="5"/>
@@ -6812,7 +6901,7 @@
         <f xml:space="preserve"> Week3!G9 - Week5!G35</f>
         <v>-97.559723769512345</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>10.097162529346001</v>
       </c>
     </row>
@@ -6845,16 +6934,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -6866,13 +6955,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="51">
@@ -6882,13 +6971,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="11">
+      <c r="D2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="4">
@@ -6902,7 +6991,7 @@
         <f xml:space="preserve"> Week4!G2 - Week6!G2</f>
         <v>0</v>
       </c>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
       <c r="K2">
         <f>ABS(F2) - ABS(J2)</f>
         <v>2.4207951479406601E-51</v>
@@ -6915,13 +7004,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="12">
+      <c r="D3" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F3" s="5">
@@ -6935,7 +7024,7 @@
         <f xml:space="preserve"> Week4!G3 - Week6!G3</f>
         <v>10.132049141477985</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="11"/>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="1">ABS(F3) - ABS(J3)</f>
         <v>0.56924086824543896</v>
@@ -6948,13 +7037,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F4" s="5">
@@ -6968,7 +7057,7 @@
         <f xml:space="preserve"> Week4!G4 - Week6!G4</f>
         <v>-27.419793167162524</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
       <c r="K4">
         <f t="shared" si="1"/>
         <v>4.4074741745635797E-2</v>
@@ -6981,13 +7070,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F5" s="5">
@@ -7001,7 +7090,7 @@
         <f xml:space="preserve"> Week4!G5 - Week6!G5</f>
         <v>2.5778850678794498</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="11"/>
       <c r="K5">
         <f t="shared" si="1"/>
         <v>1.2401877238019301</v>
@@ -7014,13 +7103,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E6" s="11">
         <v>4021.5011695428002</v>
       </c>
       <c r="F6" s="5">
@@ -7034,7 +7123,7 @@
         <f xml:space="preserve"> Week4!G6 - Week6!G6</f>
         <v>-13.28966535388826</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>1938.943267221</v>
@@ -7047,13 +7136,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5">
@@ -7067,7 +7156,7 @@
         <f xml:space="preserve"> Week4!G7 - Week6!G7</f>
         <v>21.713478550660838</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="11"/>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>0.20723711476707399</v>
@@ -7080,13 +7169,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>1.85974769401657</v>
       </c>
       <c r="F8" s="5">
@@ -7100,7 +7189,7 @@
         <f xml:space="preserve"> Week4!G8 - Week6!G8</f>
         <v>37.104044751171479</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
       <c r="K8">
         <f t="shared" si="1"/>
         <v>1.88380795677045</v>
@@ -7113,13 +7202,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="C9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E9" s="11">
         <v>9.9322064977795996</v>
       </c>
       <c r="F9" s="5">
@@ -7133,7 +7222,7 @@
         <f xml:space="preserve"> Week4!G9 - Week6!G9</f>
         <v>-0.31387867157858612</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11"/>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>9.9707717627203998</v>
@@ -7141,21 +7230,21 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -7167,13 +7256,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="51">
@@ -7183,13 +7272,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="11">
+      <c r="D14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F14" s="4"/>
@@ -7201,11 +7290,11 @@
         <f xml:space="preserve"> Week3!G14 - Week6!G14</f>
         <v>-100</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>-2.1161475050144601E-4</v>
       </c>
       <c r="L14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18">
@@ -7215,13 +7304,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="C15" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E15" s="12">
+      <c r="D15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F15" s="5"/>
@@ -7233,11 +7322,11 @@
         <f xml:space="preserve"> Week3!G15 - Week6!G15</f>
         <v>-100</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.404495326244732</v>
       </c>
       <c r="L15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
@@ -7247,13 +7336,13 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F16" s="5"/>
@@ -7265,11 +7354,11 @@
         <f xml:space="preserve"> Week3!G16 - Week6!G16</f>
         <v>-100</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-5.0968886234727701E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="18">
@@ -7279,13 +7368,13 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F17" s="5"/>
@@ -7297,11 +7386,11 @@
         <f xml:space="preserve"> Week3!G17 - Week6!G17</f>
         <v>-100</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>-10.7620861794012</v>
       </c>
       <c r="L17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="18">
@@ -7311,13 +7400,13 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="11">
         <v>4021.5011695428002</v>
       </c>
       <c r="F18" s="5"/>
@@ -7329,11 +7418,11 @@
         <f xml:space="preserve"> Week3!G18 - Week6!G18</f>
         <v>-100</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>2888.3754497268501</v>
       </c>
       <c r="L18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="18">
@@ -7343,13 +7432,13 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C19" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F19" s="5"/>
@@ -7361,7 +7450,7 @@
         <f xml:space="preserve"> Week3!G19 - Week6!G19</f>
         <v>-100</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>-0.51958075911188295</v>
       </c>
     </row>
@@ -7372,13 +7461,13 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="11">
         <v>1.85974769401657</v>
       </c>
       <c r="F20" s="5"/>
@@ -7390,7 +7479,7 @@
         <f xml:space="preserve"> Week3!G20 - Week6!G20</f>
         <v>-100</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>1.49086437511737</v>
       </c>
     </row>
@@ -7401,13 +7490,13 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="C21" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="11">
         <v>9.9322064977795996</v>
       </c>
       <c r="F21" s="5"/>
@@ -7419,25 +7508,25 @@
         <f xml:space="preserve"> Week3!G21 - Week6!G21</f>
         <v>-100</v>
       </c>
-      <c r="J21" s="12"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -7449,16 +7538,16 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
@@ -7468,13 +7557,13 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="C28" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F28" s="4"/>
@@ -7486,11 +7575,11 @@
         <f xml:space="preserve"> Week3!G2 - Week6!G28</f>
         <v>2.0605739337042905E-11</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
       <c r="L28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="18">
@@ -7500,13 +7589,13 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="C29" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E29" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F29" s="5"/>
@@ -7518,11 +7607,11 @@
         <f xml:space="preserve"> Week3!G3 - Week6!G29</f>
         <v>-67.801198873646968</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.57025108339151198</v>
       </c>
       <c r="L29" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="18">
@@ -7532,13 +7621,13 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="C30" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F30" s="5"/>
@@ -7550,11 +7639,11 @@
         <f xml:space="preserve"> Week3!G4 - Week6!G30</f>
         <v>-15.003236229389842</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>-9.9159375360608495E-2</v>
       </c>
       <c r="L30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="18">
@@ -7564,13 +7653,13 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E31" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F31" s="5"/>
@@ -7582,11 +7671,11 @@
         <f xml:space="preserve"> Week3!G5 - Week6!G31</f>
         <v>-56.356892788140591</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>-0.61452676876525503</v>
       </c>
       <c r="L31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="18">
@@ -7596,13 +7685,13 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="C32" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E32" s="11">
         <v>4021.5011695428002</v>
       </c>
       <c r="F32" s="5"/>
@@ -7614,7 +7703,7 @@
         <f xml:space="preserve"> Week3!G6 - Week6!G32</f>
         <v>-44.20956933281812</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>157.32611553417499</v>
       </c>
     </row>
@@ -7625,13 +7714,13 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="C33" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F33" s="5"/>
@@ -7643,7 +7732,7 @@
         <f xml:space="preserve"> Week3!G7 - Week6!G33</f>
         <v>-38.753477525597134</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>-0.224207237373589</v>
       </c>
     </row>
@@ -7654,13 +7743,13 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="11">
         <v>1.85974769401657</v>
       </c>
       <c r="F34" s="5"/>
@@ -7672,7 +7761,7 @@
         <f xml:space="preserve"> Week3!G8 - Week6!G34</f>
         <v>-70.691643968564648</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>1.79964628897446</v>
       </c>
     </row>
@@ -7683,13 +7772,13 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E35" s="12">
+      <c r="C35" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="11">
         <v>9.9322064977795996</v>
       </c>
       <c r="F35" s="5"/>
@@ -7701,7 +7790,7 @@
         <f xml:space="preserve"> Week3!G9 - Week6!G35</f>
         <v>-97.559723769512345</v>
       </c>
-      <c r="J35" s="12"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7731,16 +7820,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -7752,13 +7841,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18">
@@ -7768,13 +7857,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E2" s="11">
+      <c r="C2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="3">
@@ -7789,7 +7878,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="11"/>
       <c r="K2">
         <f>ABS(F2) - ABS(J2)</f>
         <v>2.45415370407854E-54</v>
@@ -7802,13 +7891,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E3" s="12">
+      <c r="C3" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F3" s="5">
@@ -7822,7 +7911,7 @@
         <f xml:space="preserve"> Week4!G3 - Week7!G3</f>
         <v>-51.4521343671111</v>
       </c>
-      <c r="J3" s="12"/>
+      <c r="J3" s="11"/>
       <c r="K3">
         <f t="shared" ref="K3:K9" si="1">ABS(F3) - ABS(J3)</f>
         <v>0.19283512655684401</v>
@@ -7835,13 +7924,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="C4" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E4" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F4">
@@ -7855,7 +7944,7 @@
         <f xml:space="preserve"> Week4!G4 - Week7!G4</f>
         <v>-21.991174606898028</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="11"/>
       <c r="K4">
         <f t="shared" si="1"/>
         <v>3.3040646100640003E-2</v>
@@ -7868,13 +7957,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="C5" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F5" s="5">
@@ -7888,7 +7977,7 @@
         <f xml:space="preserve"> Week4!G5 - Week7!G5</f>
         <v>-68.983437329630121</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="11"/>
       <c r="K5">
         <f t="shared" si="1"/>
         <v>0.57749759425457003</v>
@@ -7901,13 +7990,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="C6" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="11">
         <v>4021.5011695428002</v>
       </c>
       <c r="F6" s="5">
@@ -7921,7 +8010,7 @@
         <f xml:space="preserve"> Week4!G6 - Week7!G6</f>
         <v>31.780988082149616</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="11"/>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>4310.9805594415402</v>
@@ -7934,13 +8023,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="C7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5">
@@ -7954,7 +8043,7 @@
         <f xml:space="preserve"> Week4!G7 - Week7!G7</f>
         <v>39.677545982948786</v>
       </c>
-      <c r="J7" s="12"/>
+      <c r="J7" s="11"/>
       <c r="K7">
         <f t="shared" si="1"/>
         <v>0.15947669058205399</v>
@@ -7967,13 +8056,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="C8" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" s="11">
         <v>1.88380795677045</v>
       </c>
       <c r="F8" s="5">
@@ -7987,7 +8076,7 @@
         <f xml:space="preserve"> Week4!G8 - Week7!G8</f>
         <v>37.565065050720946</v>
       </c>
-      <c r="J8" s="12"/>
+      <c r="J8" s="11"/>
       <c r="K8">
         <f t="shared" si="1"/>
         <v>1.8684324311018099</v>
@@ -8000,13 +8089,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="C9" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="12">
+      <c r="D9" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E9" s="11">
         <v>9.9707717627203998</v>
       </c>
       <c r="F9" s="5">
@@ -8020,7 +8109,7 @@
         <f xml:space="preserve"> Week4!G9 - Week7!G9</f>
         <v>-0.11991449111956973</v>
       </c>
-      <c r="J9" s="12"/>
+      <c r="J9" s="11"/>
       <c r="K9">
         <f t="shared" si="1"/>
         <v>9.9515462235145993</v>
@@ -8028,21 +8117,21 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -8054,13 +8143,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
@@ -8070,13 +8159,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="C14" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F14" s="3">
@@ -8090,7 +8179,7 @@
         <f xml:space="preserve"> Week3!G14 - Week7!G14</f>
         <v>-100</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>-7.3352407821837605E-5</v>
       </c>
     </row>
@@ -8101,13 +8190,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F15" s="5">
@@ -8121,7 +8210,7 @@
         <f xml:space="preserve"> Week3!G15 - Week7!G15</f>
         <v>-68.450019472329132</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.36640478504205698</v>
       </c>
     </row>
@@ -8132,13 +8221,13 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F16">
@@ -8152,7 +8241,7 @@
         <f xml:space="preserve"> Week3!G16 - Week7!G16</f>
         <v>-78.315852175186166</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-2.5414118062859E-3</v>
       </c>
     </row>
@@ -8163,13 +8252,13 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F17" s="5">
@@ -8183,7 +8272,7 @@
         <f xml:space="preserve"> Week3!G17 - Week7!G17</f>
         <v>-148.82554348368501</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.53789510663172801</v>
       </c>
     </row>
@@ -8194,13 +8283,13 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E18" s="11">
         <v>4021.5011695428002</v>
       </c>
       <c r="F18" s="5">
@@ -8214,7 +8303,7 @@
         <f xml:space="preserve"> Week3!G18 - Week7!G18</f>
         <v>-6.7149314618166649</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>4154.7492977014199</v>
       </c>
     </row>
@@ -8225,13 +8314,13 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C19" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F19" s="5">
@@ -8245,7 +8334,7 @@
         <f xml:space="preserve"> Week3!G19 - Week7!G19</f>
         <v>-22.052168344933339</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>-0.50510722887869497</v>
       </c>
     </row>
@@ -8256,13 +8345,13 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="11">
         <v>1.88380795677045</v>
       </c>
       <c r="F20" s="5">
@@ -8276,7 +8365,7 @@
         <f xml:space="preserve"> Week3!G20 - Week7!G20</f>
         <v>-0.81619390200471809</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>1.3954590139716301</v>
       </c>
     </row>
@@ -8287,11 +8376,11 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="10"/>
-      <c r="E21" s="12">
+      <c r="C21" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11">
         <v>9.9707717627203998</v>
       </c>
       <c r="F21" s="5">
@@ -8305,27 +8394,27 @@
         <f xml:space="preserve"> Week3!G21 - Week7!G21</f>
         <v>-0.19281896791262079</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>9.3105784918819197</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -8337,16 +8426,16 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
@@ -8356,13 +8445,13 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="11">
+      <c r="C28" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F28" s="3">
@@ -8376,7 +8465,7 @@
         <f xml:space="preserve"> Week3!G2 - Week7!G28</f>
         <v>2.0605739337042905E-11</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
     </row>
@@ -8387,13 +8476,13 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="C29" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F29" s="5">
@@ -8407,7 +8496,7 @@
         <f xml:space="preserve"> Week3!G3 - Week7!G29</f>
         <v>-36.251218345976092</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.58371094034922</v>
       </c>
     </row>
@@ -8418,13 +8507,13 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="C30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F30">
@@ -8438,7 +8527,7 @@
         <f xml:space="preserve"> Week3!G4 - Week7!G30</f>
         <v>6.6809115954239928</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>-0.10020592550034001</v>
       </c>
     </row>
@@ -8449,13 +8538,13 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="C31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11">
         <v>-0.28196633900000001</v>
       </c>
       <c r="F31" s="5">
@@ -8469,7 +8558,7 @@
         <f xml:space="preserve"> Week3!G5 - Week7!G31</f>
         <v>-105.18243627182559</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>-0.25765657912177498</v>
       </c>
     </row>
@@ -8480,13 +8569,13 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="C32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="11">
         <v>4021.5011695428002</v>
       </c>
       <c r="F32" s="5">
@@ -8500,7 +8589,7 @@
         <f xml:space="preserve"> Week3!G6 - Week7!G32</f>
         <v>49.075499205365219</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>1139.76763933693</v>
       </c>
     </row>
@@ -8511,13 +8600,13 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="C33" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F33" s="5">
@@ -8531,7 +8620,7 @@
         <f xml:space="preserve"> Week3!G7 - Week7!G33</f>
         <v>39.194354129469531</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>-0.321668949645806</v>
       </c>
     </row>
@@ -8542,13 +8631,13 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="12">
+      <c r="C34" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" s="11">
         <v>1.88380795677045</v>
       </c>
       <c r="F34" s="5">
@@ -8562,7 +8651,7 @@
         <f xml:space="preserve"> Week3!G8 - Week7!G34</f>
         <v>28.492162129430628</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>1.79866302231526</v>
       </c>
     </row>
@@ -8573,13 +8662,13 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="E35" s="12">
+      <c r="D35" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" s="11">
         <v>9.9707717627203998</v>
       </c>
       <c r="F35" s="5">
@@ -8593,7 +8682,7 @@
         <f xml:space="preserve"> Week3!G9 - Week7!G35</f>
         <v>2.2474572625750402</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>10.055705404089901</v>
       </c>
     </row>
@@ -8606,7 +8695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6975360-05B9-BF46-ACA0-E371166E0A7A}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8625,16 +8714,16 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
@@ -8646,13 +8735,13 @@
         <v>18</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="18">
@@ -8662,13 +8751,13 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="C2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F2" s="4">
@@ -8683,7 +8772,7 @@
         <v>2.0210792683883483E-6</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>2.1552763417276701E-4</v>
       </c>
       <c r="K2">
@@ -8698,13 +8787,13 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="13">
+      <c r="C3" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="12">
         <v>0.61120521576144304</v>
       </c>
       <c r="F3" s="5">
@@ -8718,7 +8807,7 @@
         <f xml:space="preserve"> Week4!G3 - Week8!G3</f>
         <v>-58.925604767894384</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="12">
         <v>0.41421500528851501</v>
       </c>
       <c r="K3">
@@ -8733,13 +8822,13 @@
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="13">
+      <c r="C4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E4" s="12">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="F4" s="5">
@@ -8753,7 +8842,7 @@
         <f xml:space="preserve"> Week4!G4 - Week8!G4</f>
         <v>-30.528149658631236</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="12">
         <v>-4.6199868011901598E-3</v>
       </c>
       <c r="K4">
@@ -8768,13 +8857,13 @@
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C5" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E5" s="12">
         <v>0.57749759425457003</v>
       </c>
       <c r="F5" s="5">
@@ -8788,7 +8877,7 @@
         <f xml:space="preserve"> Week4!G5 - Week8!G5</f>
         <v>47.160601228829911</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="12">
         <v>0.64593201475483397</v>
       </c>
       <c r="K5">
@@ -8803,13 +8892,13 @@
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="C6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="12">
         <v>4310.9805594415402</v>
       </c>
       <c r="F6" s="5">
@@ -8823,7 +8912,7 @@
         <f xml:space="preserve"> Week4!G6 - Week8!G6</f>
         <v>34.965542575325628</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>4196.1960363899398</v>
       </c>
       <c r="K6">
@@ -8838,13 +8927,13 @@
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="12">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F7" s="5">
@@ -8858,7 +8947,7 @@
         <f xml:space="preserve"> Week4!G7 - Week8!G7</f>
         <v>5.6948256349508242</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="12">
         <v>-0.225240846153381</v>
       </c>
       <c r="K7">
@@ -8873,13 +8962,13 @@
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="C8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="12">
         <v>1.88380795677045</v>
       </c>
       <c r="F8" s="5">
@@ -8893,7 +8982,7 @@
         <f xml:space="preserve"> Week4!G8 - Week8!G8</f>
         <v>14.772679218361937</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="12">
         <v>1.7831573756904999</v>
       </c>
       <c r="K8">
@@ -8908,13 +8997,13 @@
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="C9" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" s="12">
         <v>9.9707717627203998</v>
       </c>
       <c r="F9" s="5">
@@ -8928,7 +9017,7 @@
         <f xml:space="preserve"> Week4!G9 - Week8!G9</f>
         <v>-0.1004345563409674</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="12">
         <v>10.055621427000901</v>
       </c>
       <c r="K9">
@@ -8938,21 +9027,21 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>15</v>
@@ -8964,13 +9053,13 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
@@ -8980,13 +9069,13 @@
       <c r="B14">
         <v>1</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="11">
+      <c r="C14" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="10">
         <v>7.7108751145028402E-16</v>
       </c>
       <c r="F14" s="3"/>
@@ -8998,7 +9087,7 @@
         <f xml:space="preserve"> Week3!G14 - Week8!G14</f>
         <v>-100</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="11">
         <v>2.1552763417276701E-4</v>
       </c>
     </row>
@@ -9009,13 +9098,13 @@
       <c r="B15">
         <v>2</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="C15" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="11">
         <v>0.61120521576144304</v>
       </c>
       <c r="F15" s="5"/>
@@ -9027,7 +9116,7 @@
         <f xml:space="preserve"> Week3!G15 - Week8!G15</f>
         <v>-100</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="11">
         <v>0.41421500528851501</v>
       </c>
     </row>
@@ -9038,13 +9127,13 @@
       <c r="B16">
         <v>3</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="C16" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E16" s="11">
         <v>-7.1645825427363698E-3</v>
       </c>
       <c r="G16" s="8">
@@ -9055,7 +9144,7 @@
         <f xml:space="preserve"> Week3!G16 - Week8!G16</f>
         <v>-100</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="11">
         <v>-4.6199868011901598E-3</v>
       </c>
     </row>
@@ -9066,13 +9155,13 @@
       <c r="B17">
         <v>4</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="C17" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" s="11">
         <v>0.57749759425457003</v>
       </c>
       <c r="F17" s="5"/>
@@ -9084,7 +9173,7 @@
         <f xml:space="preserve"> Week3!G17 - Week8!G17</f>
         <v>-100</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="11">
         <v>0.64593201475483397</v>
       </c>
     </row>
@@ -9095,13 +9184,13 @@
       <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="C18" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="11">
         <v>4310.9805594415402</v>
       </c>
       <c r="F18" s="5"/>
@@ -9113,7 +9202,7 @@
         <f xml:space="preserve"> Week3!G18 - Week8!G18</f>
         <v>-100</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="11">
         <v>4196.1960363899398</v>
       </c>
     </row>
@@ -9124,13 +9213,13 @@
       <c r="B19">
         <v>6</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="C19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E19" s="11">
         <v>-0.12430862230397099</v>
       </c>
       <c r="F19" s="5"/>
@@ -9142,7 +9231,7 @@
         <f xml:space="preserve"> Week3!G19 - Week8!G19</f>
         <v>-100</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="11">
         <v>-0.68032936100050401</v>
       </c>
     </row>
@@ -9153,13 +9242,13 @@
       <c r="B20">
         <v>7</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="C20" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E20" s="11">
         <v>1.88380795677045</v>
       </c>
       <c r="F20" s="5"/>
@@ -9171,7 +9260,7 @@
         <f xml:space="preserve"> Week3!G20 - Week8!G20</f>
         <v>-100</v>
       </c>
-      <c r="J20" s="12">
+      <c r="J20" s="11">
         <v>1.15147506727585</v>
       </c>
     </row>
@@ -9182,13 +9271,13 @@
       <c r="B21">
         <v>8</v>
       </c>
-      <c r="C21" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="C21" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" s="11">
         <v>9.9707717627203998</v>
       </c>
       <c r="F21" s="5"/>
@@ -9200,27 +9289,27 @@
         <f xml:space="preserve"> Week3!G21 - Week8!G21</f>
         <v>-100</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="11">
         <v>9.4274088419550495</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
         <v>0</v>
       </c>
       <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
         <v>39</v>
-      </c>
-      <c r="D27" t="s">
-        <v>40</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>15</v>
@@ -9232,16 +9321,16 @@
         <v>18</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>14</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="18">
@@ -9251,13 +9340,13 @@
       <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E28" s="11"/>
+      <c r="C28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="10"/>
       <c r="F28" s="3"/>
       <c r="G28" s="8" t="e">
         <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
@@ -9267,7 +9356,7 @@
         <f xml:space="preserve"> Week3!G2 - Week8!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="12">
+      <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
     </row>
@@ -9278,13 +9367,13 @@
       <c r="B29">
         <v>2</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="12"/>
+      <c r="C29" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
       <c r="G29" s="8" t="e">
         <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
@@ -9294,7 +9383,7 @@
         <f xml:space="preserve"> Week3!G3 - Week8!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="11">
         <v>0.58391205395133206</v>
       </c>
     </row>
@@ -9305,13 +9394,13 @@
       <c r="B30">
         <v>3</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E30" s="12"/>
+      <c r="C30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="11"/>
       <c r="G30" s="8" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
@@ -9320,7 +9409,7 @@
         <f xml:space="preserve"> Week3!G4 - Week8!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="12">
+      <c r="J30" s="11">
         <v>-0.10027326290794999</v>
       </c>
     </row>
@@ -9331,13 +9420,13 @@
       <c r="B31">
         <v>4</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E31" s="12"/>
+      <c r="C31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
       <c r="G31" s="8" t="e">
         <f t="shared" si="3"/>
@@ -9347,7 +9436,7 @@
         <f xml:space="preserve"> Week3!G5 - Week8!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="11">
         <v>-9.9621962834792299E-2</v>
       </c>
     </row>
@@ -9358,13 +9447,13 @@
       <c r="B32">
         <v>5</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="12"/>
+      <c r="C32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E32" s="11"/>
       <c r="F32" s="5"/>
       <c r="G32" s="8" t="e">
         <f t="shared" si="3"/>
@@ -9374,7 +9463,7 @@
         <f xml:space="preserve"> Week3!G6 - Week8!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="11">
         <v>3327.9711854080501</v>
       </c>
     </row>
@@ -9385,13 +9474,13 @@
       <c r="B33">
         <v>6</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="E33" s="12"/>
+      <c r="C33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
       <c r="G33" s="8" t="e">
         <f t="shared" si="3"/>
@@ -9401,7 +9490,7 @@
         <f xml:space="preserve"> Week3!G7 - Week8!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="12">
+      <c r="J33" s="11">
         <v>-0.225240846153381</v>
       </c>
     </row>
@@ -9412,13 +9501,13 @@
       <c r="B34">
         <v>7</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="12"/>
+      <c r="C34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
       <c r="G34" s="8" t="e">
         <f t="shared" si="3"/>
@@ -9428,7 +9517,7 @@
         <f xml:space="preserve"> Week3!G8 - Week8!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="12">
+      <c r="J34" s="11">
         <v>1.7831573756904999</v>
       </c>
     </row>
@@ -9439,13 +9528,13 @@
       <c r="B35">
         <v>8</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="12"/>
+      <c r="C35" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
       <c r="G35" s="8" t="e">
         <f t="shared" si="3"/>
@@ -9455,7 +9544,7 @@
         <f xml:space="preserve"> Week3!G9 - Week8!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J35" s="12">
+      <c r="J35" s="11">
         <v>10.055621427000901</v>
       </c>
     </row>

--- a/observations/Observations.xlsx
+++ b/observations/Observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshpanta/Documents/GitHub/imperial-ai-ml-capstone-project/observations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C1254A-6717-B947-A40B-717E67D73A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE96BA2-2F42-9446-938A-AAFFADE9A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17540" activeTab="12" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="174">
   <si>
     <t>Function</t>
   </si>
@@ -293,15 +293,6 @@
     <t>0.470795-0.469432-0.384002</t>
   </si>
   <si>
-    <t xml:space="preserve">0.428136-0.411944-0.394251-0.408480 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.204073-0.904901-0.851427-0.949180 </t>
-  </si>
-  <si>
-    <t>0.403200-0.358308-0.53710-0.806405-0.125919]</t>
-  </si>
-  <si>
     <t>0.005966-0.408227-0.235281-0.257264-0.364575-0.611106</t>
   </si>
   <si>
@@ -311,18 +302,9 @@
     <t>0.192695-0.299481-0.178516-0.223527-0.635056-0.453264-0.202099-0.598408</t>
   </si>
   <si>
-    <t>Using GP</t>
-  </si>
-  <si>
-    <t>0.555556-0.878788</t>
-  </si>
-  <si>
     <t>0.707071-0.878788</t>
   </si>
   <si>
-    <t xml:space="preserve">0.73737374 0.98989899 0.        </t>
-  </si>
-  <si>
     <t>0.437681-0.304730-0.402971-0.465417</t>
   </si>
   <si>
@@ -339,15 +321,6 @@
   </si>
   <si>
     <t>GP UCB</t>
-  </si>
-  <si>
-    <t>0.380184-0.470808-0.448688-0.623953-0.016960</t>
-  </si>
-  <si>
-    <t>0.019827-0.361049-0.286289-0.217141-0.280808-0.629024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.091162-0.246438-0.013086-0.510607-0.945613-0.106765-0.014449-0.053390 </t>
   </si>
   <si>
     <t>0.403200-0.358308-0.537100-0.806405-0.125919</t>
@@ -366,51 +339,21 @@
     <t>0.272727-0.646465</t>
   </si>
   <si>
-    <t>0.226985-0.173301</t>
-  </si>
-  <si>
     <t>0.727273-0.848485</t>
   </si>
   <si>
-    <t>0.578940-0.999998</t>
-  </si>
-  <si>
     <t>0.505051-0.505051-0.333333</t>
   </si>
   <si>
-    <t>0.466270-0.468781-0.388206</t>
-  </si>
-  <si>
-    <t>0.29683-0.339701-0.32808-0.381113</t>
-  </si>
-  <si>
-    <t>0.411639-0.405230-0.395606-0.413578</t>
-  </si>
-  <si>
-    <t>0.006714-0.962566-0.999640-0.988118</t>
-  </si>
-  <si>
     <t>0.210130-0.932370-0.868367-0.947575</t>
   </si>
   <si>
-    <t>0.255285-0.205991-0.397076-0.455967-0.002761</t>
-  </si>
-  <si>
     <t>0.391891-0.368600-0.531377-0.802436-0.120967</t>
   </si>
   <si>
-    <t>0.003012-0.188490-0.151942-0.248707-0.271647-0.686207</t>
-  </si>
-  <si>
     <t>0.012847-0.337198-0.189260-0.238606-0.359323-0.557438</t>
   </si>
   <si>
-    <t>7.26450e-02 1.94260e-01 4.52080e-02 9.74669e-01 9.85736e-01 1.36972e-01 7.86000e-04 3.92350e-02</t>
-  </si>
-  <si>
-    <t>0.128221-0.210897-0.140317-0.25416-0.652099-0.458573-0.200614-0.567749</t>
-  </si>
-  <si>
     <t xml:space="preserve">SVM. Kept c = 10 </t>
   </si>
   <si>
@@ -429,57 +372,30 @@
     <t>GP and UCB with kappa 1.0</t>
   </si>
   <si>
-    <t>0.128694-0.219713</t>
-  </si>
-  <si>
     <t>0.767677-0.171717</t>
   </si>
   <si>
     <t>GP and UCB with kappa 4.0</t>
   </si>
   <si>
-    <t>0.233998-0.749905</t>
-  </si>
-  <si>
     <t>0.484848-0.464646-0.343434</t>
   </si>
   <si>
-    <t>0.464267-0.464315-0.390928</t>
-  </si>
-  <si>
     <t>0.409933-0.364803-0.392926-0.352123</t>
   </si>
   <si>
-    <t>0.404571-0.412653-0.392798-0.411417</t>
-  </si>
-  <si>
     <t>0.256514-0.99714-0.999654-0.992373</t>
   </si>
   <si>
-    <t>SVM with c=200</t>
-  </si>
-  <si>
-    <t>0.226764-0.976135-0.968146-0.985228</t>
-  </si>
-  <si>
-    <t>0.149263-0.157346-0.376126-0.401604-0.000412</t>
-  </si>
-  <si>
     <t>0.431450-0.341100-0.525399-0.767641-0.116168</t>
   </si>
   <si>
-    <t>0.005736-0.144342-0.130780-0.371920-0.195657-0.688366</t>
-  </si>
-  <si>
     <t>SVM. Changed  C from 10 to 50</t>
   </si>
   <si>
     <t>0.005938-0.357099-0.254090-0.226019-0.373983-0.567737</t>
   </si>
   <si>
-    <t>1.26784232e-01 1.57479325e-01 2.74693931e-02 8.74639200e-01 9.27662487e-01 6.74960089e-02 2.88839476e-02 3.76237340e-04</t>
-  </si>
-  <si>
     <t>0.116710-0.257625-0.102652-0.256898-0.608380-0.438972-0.202376-0.673922</t>
   </si>
   <si>
@@ -492,45 +408,18 @@
     <t>0.757576-0.747475</t>
   </si>
   <si>
-    <t>0.489438-0.943112]</t>
-  </si>
-  <si>
     <t>0.636364-0.040404</t>
   </si>
   <si>
     <t>GP with kappa 3.0 for more exploitation</t>
   </si>
   <si>
-    <t>0.236401-0.754627</t>
-  </si>
-  <si>
     <t>0.484848-0.484848-0.363636</t>
   </si>
   <si>
-    <t>0.463265-0.468825-0.396273</t>
-  </si>
-  <si>
-    <t>0.40228-0.380074-0.37591-0.363568</t>
-  </si>
-  <si>
-    <t>0.402987-0.410539-0.398977-0.398417</t>
-  </si>
-  <si>
     <t>0.331337-0.998687-0.980926-0.995698</t>
   </si>
   <si>
-    <t>0.267979-0.995122-0.999651-0.991231</t>
-  </si>
-  <si>
-    <t>SVM with c=5000 ad epsilon=2.0</t>
-  </si>
-  <si>
-    <t>0.166042-0.457246-0.073017-0.773776-0.010904</t>
-  </si>
-  <si>
-    <t>GP with kappa 4.0</t>
-  </si>
-  <si>
     <t>SVM with c=20 from  0.5</t>
   </si>
   <si>
@@ -540,15 +429,6 @@
     <t>SVM with c=15 from 10</t>
   </si>
   <si>
-    <t>0.004029-0.00812-0.157955-0.418604-0.120639-0.793899</t>
-  </si>
-  <si>
-    <t>0.00569-0.361594-0.232773-0.260054-0.435480-0.530060</t>
-  </si>
-  <si>
-    <t>0.182705-0.087667-0.016365-0.763103-0.911837-0.098463-0.034195-0.011251</t>
-  </si>
-  <si>
     <t>0.100296-0.265682-0.146924-0.288241-0.662098-0.485298-0.240507-0.639099</t>
   </si>
   <si>
@@ -691,6 +571,9 @@
   </si>
   <si>
     <t>0.185782-0.257161-0.122317-0.261284-0.594025-0.405767-0.247267-0.624735</t>
+  </si>
+  <si>
+    <t>Week13</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1033,7 @@
   <dimension ref="A3:R24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22:M24"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1206,6 +1089,9 @@
       <c r="M4" t="s">
         <v>71</v>
       </c>
+      <c r="N4" t="s">
+        <v>173</v>
+      </c>
       <c r="P4" t="s">
         <v>72</v>
       </c>
@@ -1213,7 +1099,7 @@
         <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1273,7 +1159,7 @@
         <v>1.7063022014990999E-17</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="17">
@@ -1333,7 +1219,7 @@
         <v>0.72074952220389799</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="17">
@@ -1393,7 +1279,7 @@
         <v>-2.6296009521582001E-3</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -1741,6 +1627,9 @@
       <c r="M16" t="s">
         <v>71</v>
       </c>
+      <c r="N16" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="17" spans="1:13" ht="34">
       <c r="A17">
@@ -1762,25 +1651,25 @@
         <v>76</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" customHeight="1">
@@ -1803,25 +1692,25 @@
         <v>76</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="23" customHeight="1">
@@ -1844,25 +1733,25 @@
         <v>76</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="19" customHeight="1">
@@ -1882,28 +1771,28 @@
         <v>76</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K20" s="13" t="s">
         <v>75</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="13" customFormat="1" ht="23" customHeight="1">
@@ -1923,19 +1812,19 @@
         <v>76</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>76</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>75</v>
@@ -1944,7 +1833,7 @@
         <v>75</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="17">
@@ -1976,7 +1865,7 @@
         <v>76</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="K22" t="s">
         <v>76</v>
@@ -2017,7 +1906,7 @@
         <v>76</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
         <v>76</v>
@@ -2058,7 +1947,7 @@
         <v>76</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="K24" t="s">
         <v>76</v>
@@ -2079,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4340FB90-2D9B-E248-9E12-5FBF92F46F8C}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2136,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
@@ -2172,10 +2061,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12">
         <v>0.61120521576144304</v>
@@ -2207,10 +2096,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>170</v>
+        <v>130</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E4" s="12">
         <v>-7.1645825427363698E-3</v>
@@ -2242,10 +2131,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E5" s="12">
         <v>0.57749759425457003</v>
@@ -2277,10 +2166,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E6" s="12">
         <v>4310.9805594415402</v>
@@ -2312,10 +2201,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="E7" s="12">
         <v>-0.12430862230397099</v>
@@ -2347,10 +2236,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E8" s="12">
         <v>1.88380795677045</v>
@@ -2382,10 +2271,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>177</v>
+        <v>137</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="E9" s="12">
         <v>9.9707717627203998</v>
@@ -2409,445 +2298,199 @@
         <v>-3.6219314270009004</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
       <c r="E14" s="10"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8" t="e">
-        <f>(ABS(E14 -F14)/MAX(ABS(E14),ABS(F14)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="8" t="e">
-        <f xml:space="preserve"> Week3!G14 - Week9!G14</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="11">
         <v>2.1552763417276701E-4</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8" t="e">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H15" s="8" t="e">
-        <f xml:space="preserve"> Week3!G15 - Week9!G15</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="11">
         <v>0.41421500528851501</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
       <c r="E16" s="11"/>
-      <c r="G16" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H16" s="8" t="e">
-        <f xml:space="preserve"> Week3!G16 - Week9!G16</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="11">
         <v>-4.6199868011901598E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
+    <row r="17" spans="3:12" ht="18">
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
       <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H17" s="8" t="e">
-        <f xml:space="preserve"> Week3!G17 - Week9!G17</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="11">
         <v>0.64593201475483397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
+    <row r="18" spans="3:12" ht="18">
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
       <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="8" t="e">
-        <f xml:space="preserve"> Week3!G18 - Week9!G18</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="11">
         <v>4196.1960363899398</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
+    <row r="19" spans="3:12" ht="18">
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="8" t="e">
-        <f xml:space="preserve"> Week3!G19 - Week9!G19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="11">
         <v>-0.68032936100050401</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
+    <row r="20" spans="3:12" ht="18">
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="8" t="e">
-        <f xml:space="preserve"> Week3!G20 - Week9!G20</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="11">
         <v>1.15147506727585</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
+    <row r="21" spans="3:12" ht="18">
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8" t="e">
-        <f xml:space="preserve"> Week3!G21 - Week9!G21</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="11">
         <v>9.4274088419550495</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="27" spans="3:12">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18">
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f xml:space="preserve"> Week3!G2 - Week9!G28</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
+    <row r="29" spans="3:12" ht="18">
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8" t="e">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f xml:space="preserve"> Week3!G3 - Week9!G29</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="11">
         <v>0.58391205395133206</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
+    <row r="30" spans="3:12" ht="18">
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
       <c r="E30" s="11"/>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f xml:space="preserve"> Week3!G4 - Week9!G30</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="11">
         <v>-0.10027326290794999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
+    <row r="31" spans="3:12" ht="18">
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f xml:space="preserve"> Week3!G5 - Week9!G31</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="11">
         <v>-9.9621962834792299E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
+    <row r="32" spans="3:12" ht="18">
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="8" t="e">
-        <f xml:space="preserve"> Week3!G6 - Week9!G32</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="11">
         <v>3327.9711854080501</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
+    <row r="33" spans="3:10" ht="18">
       <c r="C33" s="11"/>
       <c r="D33" s="9"/>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="8" t="e">
-        <f xml:space="preserve"> Week3!G7 - Week9!G33</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="11">
         <v>-0.225240846153381</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
+    <row r="34" spans="3:10" ht="18">
       <c r="C34" s="11"/>
       <c r="D34" s="9"/>
       <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="8" t="e">
-        <f xml:space="preserve"> Week3!G8 - Week9!G34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="11">
         <v>1.7831573756904999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
+    <row r="35" spans="3:10" ht="18">
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="8" t="e">
-        <f xml:space="preserve"> Week3!G9 - Week9!G35</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="J35" s="11">
         <v>10.055621427000901</v>
       </c>
@@ -2859,10 +2502,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9F4F33-0F72-E045-9A1C-A86F31202424}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2918,10 +2561,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
@@ -2954,10 +2597,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E3" s="11">
         <v>0.63564435544545905</v>
@@ -2989,10 +2632,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>185</v>
+        <v>145</v>
       </c>
       <c r="E4" s="11">
         <v>-2.6296009521582001E-3</v>
@@ -3024,10 +2667,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="E5" s="11">
         <v>0.57749759425457003</v>
@@ -3059,10 +2702,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>183</v>
+        <v>143</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>182</v>
+        <v>142</v>
       </c>
       <c r="E6" s="11">
         <v>4310.9805594415402</v>
@@ -3094,10 +2737,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="E7" s="11">
         <v>-0.12430862230397099</v>
@@ -3129,10 +2772,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="E8" s="11">
         <v>1.88380795677045</v>
@@ -3164,10 +2807,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>178</v>
+        <v>138</v>
       </c>
       <c r="E9" s="11">
         <v>9.9707717627203998</v>
@@ -3191,481 +2834,164 @@
         <v>-0.1068263031308998</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="18">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8" t="e">
-        <f>(ABS(#REF! -F14)/MAX(ABS(#REF!),ABS(F14)) )* 100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="8" t="e">
-        <f xml:space="preserve"> Week3!G14 - Week10!G14</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-1.82610597959317E-4</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.63564435544545905</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week10!G15</f>
-        <v>-100</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.680331821170302</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-2.6296009521582001E-3</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week10!G16</f>
-        <v>-100</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-1.53417251817563E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.57749759425457003</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="3:10" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week10!G17</f>
-        <v>-100</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.52942733383851404</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4310.9805594415402</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="3:10" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week10!G18</f>
-        <v>-100</v>
-      </c>
-      <c r="J18" s="11">
-        <v>3773.9891608299399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="3:10" ht="18">
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="8" t="e">
-        <f xml:space="preserve"> Week3!G19 - Week10!G19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
+    <row r="20" spans="3:10" ht="18">
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="8" t="e">
-        <f xml:space="preserve"> Week3!G20 - Week10!G20</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
+    <row r="21" spans="3:10" ht="18">
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8" t="e">
-        <f xml:space="preserve"> Week3!G21 - Week10!G21</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
+    <row r="27" spans="3:10">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="3:10" ht="18">
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f xml:space="preserve"> Week3!G2 - Week10!G28</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
+    <row r="29" spans="3:10" ht="18">
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8" t="e">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f xml:space="preserve"> Week3!G3 - Week10!G29</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
+    <row r="30" spans="3:10" ht="18">
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
       <c r="E30" s="11"/>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f xml:space="preserve"> Week3!G4 - Week10!G30</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
+    <row r="31" spans="3:10" ht="18">
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f xml:space="preserve"> Week3!G5 - Week10!G31</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
+    <row r="32" spans="3:10" ht="18">
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="8" t="e">
-        <f xml:space="preserve"> Week3!G6 - Week10!G32</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E33" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
+    <row r="33" spans="3:10" ht="18">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H33" s="8">
-        <f xml:space="preserve"> Week3!G7 - Week10!G33</f>
-        <v>-38.753477525597134</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-0.22564673102918401</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1.88380795677045</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="3:10" ht="18">
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H34" s="8">
-        <f xml:space="preserve"> Week3!G8 - Week10!G34</f>
-        <v>-70.691643968564648</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1.79243618860138</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="E35" s="11">
-        <v>9.9707717627203998</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="3:10" ht="18">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H35" s="8">
-        <f xml:space="preserve"> Week3!G9 - Week10!G35</f>
-        <v>-97.559723769512345</v>
-      </c>
-      <c r="J35" s="11">
-        <v>10.051246412332</v>
-      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3676,8 +3002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0A6397-1792-FC49-8FB0-C74C348251FE}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3733,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
@@ -3765,10 +3091,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E3" s="11">
         <v>0.72074952220389799</v>
@@ -3796,10 +3122,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>188</v>
+        <v>148</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="E4" s="11">
         <v>-2.6296009521582001E-3</v>
@@ -3827,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="E5" s="11">
         <v>0.57749759425457003</v>
@@ -3858,10 +3184,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="E6" s="11">
         <v>4537.8399923503803</v>
@@ -3889,10 +3215,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="E7" s="11">
         <v>-0.12430862230397099</v>
@@ -3920,10 +3246,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="E8" s="11">
         <v>1.92969449721477</v>
@@ -3951,10 +3277,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="E9" s="11">
         <v>9.9707717627203998</v>
@@ -3974,458 +3300,180 @@
         <v>10.0604203159638</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="34">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+    <row r="14" spans="1:11" ht="18">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8" t="e">
-        <f>(ABS(#REF! -F14)/MAX(ABS(#REF!),ABS(F14)) )* 100</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H14" s="8" t="e">
-        <f xml:space="preserve"> Week3!G14 - Week11!G14</f>
-        <v>#REF!</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="11">
         <v>-1.4302305791296299E-4</v>
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" ht="34">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.72074952220389799</v>
-      </c>
+    <row r="15" spans="1:11" ht="18">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="1">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week11!G15</f>
-        <v>-100</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="11">
         <v>0.680331821170302</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="34">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-2.6296009521582001E-3</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week11!G16</f>
-        <v>-100</v>
-      </c>
+    <row r="16" spans="1:11" ht="18">
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="11">
         <v>-1.53417251817563E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="34">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.57749759425457003</v>
-      </c>
+    <row r="17" spans="3:12" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week11!G17</f>
-        <v>-100</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="11">
         <v>1.03862596115182</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4537.8399923503803</v>
-      </c>
+    <row r="18" spans="3:12" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week11!G18</f>
-        <v>-100</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="11">
         <v>4531.9910287256898</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
+    <row r="19" spans="3:12" ht="18">
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
       <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H19" s="8" t="e">
-        <f xml:space="preserve"> Week3!G19 - Week11!G19</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
+    <row r="20" spans="3:12" ht="18">
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
       <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="8" t="e">
-        <f xml:space="preserve"> Week3!G20 - Week11!G20</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
+    <row r="21" spans="3:12" ht="18">
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="8" t="e">
-        <f xml:space="preserve"> Week3!G21 - Week11!G21</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="27" spans="3:12">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18">
       <c r="C28" s="11"/>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f xml:space="preserve"> Week3!G2 - Week11!G28</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
+    <row r="29" spans="3:12" ht="18">
       <c r="C29" s="11"/>
       <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8" t="e">
-        <f t="shared" ref="G29:G35" si="2">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f xml:space="preserve"> Week3!G3 - Week11!G29</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
+    <row r="30" spans="3:12" ht="18">
       <c r="C30" s="11"/>
       <c r="D30" s="9"/>
       <c r="E30" s="11"/>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f xml:space="preserve"> Week3!G4 - Week11!G30</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
+    <row r="31" spans="3:12" ht="18">
       <c r="C31" s="11"/>
       <c r="D31" s="9"/>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f xml:space="preserve"> Week3!G5 - Week11!G31</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="11"/>
     </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
+    <row r="32" spans="3:12" ht="18">
       <c r="C32" s="11"/>
       <c r="D32" s="9"/>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="8" t="e">
-        <f xml:space="preserve"> Week3!G6 - Week11!G32</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="11"/>
     </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
+    <row r="33" spans="3:10" ht="18">
       <c r="C33" s="11"/>
       <c r="D33" s="9"/>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="8" t="e">
-        <f xml:space="preserve"> Week3!G7 - Week11!G33</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="11"/>
     </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
+    <row r="34" spans="3:10" ht="18">
       <c r="C34" s="11"/>
-      <c r="D34" s="9" t="s">
-        <v>195</v>
-      </c>
+      <c r="D34" s="9"/>
       <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="8" t="e">
-        <f xml:space="preserve"> Week3!G8 - Week11!G34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="11"/>
     </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
+    <row r="35" spans="3:10" ht="18">
       <c r="C35" s="11"/>
       <c r="D35" s="9"/>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="8" t="e">
-        <f xml:space="preserve"> Week3!G9 - Week11!G35</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="J35" s="11"/>
     </row>
   </sheetData>
@@ -4438,7 +3486,7 @@
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4494,10 +3542,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
@@ -4524,10 +3572,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E3" s="12">
         <v>0.72074952220389799</v>
@@ -4553,10 +3601,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E4" s="12">
         <v>-2.6296009521582001E-3</v>
@@ -4582,10 +3630,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="E5" s="12">
         <v>0.57749759425457003</v>
@@ -4611,10 +3659,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>209</v>
+        <v>169</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>206</v>
+        <v>166</v>
       </c>
       <c r="E6" s="12">
         <v>4537.8399923503803</v>
@@ -4640,10 +3688,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="E7" s="12">
         <v>-0.12430862230397099</v>
@@ -4669,10 +3717,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="E8" s="12">
         <v>2.2490463956487199</v>
@@ -4698,10 +3746,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>208</v>
+        <v>168</v>
       </c>
       <c r="E9" s="12">
         <v>9.9707717627203998</v>
@@ -4814,7 +3862,7 @@
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="18">
@@ -6008,8 +5056,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EF3468-E5E2-7948-A4E1-947E6B8EE90D}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6068,7 +5116,7 @@
         <v>77</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
@@ -6103,7 +5151,7 @@
         <v>78</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E3" s="11">
         <v>0.61120521576144304</v>
@@ -6138,7 +5186,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="11">
         <v>-7.1645825427363698E-3</v>
@@ -6170,10 +5218,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E5" s="11">
         <v>-0.28196633900000001</v>
@@ -6205,10 +5253,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E6" s="11">
         <v>2763.1361350550201</v>
@@ -6240,10 +5288,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E7" s="11">
         <v>-0.12430862230397099</v>
@@ -6275,10 +5323,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E8" s="11">
         <v>1.51524322953832</v>
@@ -6310,10 +5358,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E9" s="11">
         <v>9.9072611179999992</v>
@@ -6337,570 +5385,228 @@
         <v>-0.16495603156640115</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="8">
-        <f>(ABS(E14 -F14)/MAX(ABS(E14),ABS(F14)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="8">
-        <f xml:space="preserve"> Week3!G14 - Week5!G14</f>
-        <v>-100</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="11">
         <v>-3.0089761721959998E-4</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.61120521576144304</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week5!G15</f>
-        <v>-100</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="11">
         <v>0.53632978518633201</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week5!G16</f>
-        <v>-100</v>
-      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="11">
         <v>-9.8524768373733695E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="11">
-        <v>-0.28196633900000001</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week5!G17</f>
-        <v>-100</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="11">
         <v>-2.6775999454187599E-2</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="11">
-        <v>2763.1361350550201</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week5!G18</f>
-        <v>-100</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="11">
         <v>2749.3105785207699</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="18">
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H19" s="8">
-        <f xml:space="preserve"> Week3!G19 - Week5!G19</f>
-        <v>-100</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="11">
         <v>-0.26032639590456003</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.51524322953832</v>
-      </c>
+    <row r="20" spans="3:12" ht="18">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H20" s="8">
-        <f xml:space="preserve"> Week3!G20 - Week5!G20</f>
-        <v>-100</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="11">
         <v>1.34354021866531</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="11">
-        <v>9.9072611179999992</v>
-      </c>
+    <row r="21" spans="3:12" ht="18">
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H21" s="8">
-        <f xml:space="preserve"> Week3!G21 - Week5!G21</f>
-        <v>-100</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="11">
         <v>9.6219979540703697</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="27" spans="3:12">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="8">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H28" s="8">
-        <f xml:space="preserve"> Week3!G2 - Week5!G28</f>
-        <v>2.0605739337042905E-11</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.61120521576144304</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="18">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H29" s="8">
-        <f xml:space="preserve"> Week3!G3 - Week5!G29</f>
-        <v>-67.801198873646968</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="11">
         <v>0.68333209087795699</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="18">
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H30" s="8">
-        <f xml:space="preserve"> Week3!G4 - Week5!G30</f>
-        <v>-15.003236229389842</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="11">
         <v>-9.8524768373733695E-2</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-0.28196633900000001</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="18">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H31" s="8">
-        <f xml:space="preserve"> Week3!G5 - Week5!G31</f>
-        <v>-56.356892788140591</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="11">
         <v>-0.83088497141966</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="11">
-        <v>2763.1361350550201</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="18">
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H32" s="8">
-        <f xml:space="preserve"> Week3!G6 - Week5!G32</f>
-        <v>-44.20956933281812</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="11">
         <v>144.11685025424401</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
+    <row r="33" spans="3:10" ht="18">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H33" s="8">
-        <f xml:space="preserve"> Week3!G7 - Week5!G33</f>
-        <v>-38.753477525597134</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="11">
         <v>-0.22304319416696899</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1.51524322953832</v>
-      </c>
+    <row r="34" spans="3:10" ht="18">
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H34" s="8">
-        <f xml:space="preserve"> Week3!G8 - Week5!G34</f>
-        <v>-70.691643968564648</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="11">
         <v>1.60727577099476</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="11">
-        <v>9.9072611179999992</v>
-      </c>
+    <row r="35" spans="3:10" ht="18">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H35" s="8">
-        <f xml:space="preserve"> Week3!G9 - Week5!G35</f>
-        <v>-97.559723769512345</v>
-      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="J35" s="11">
         <v>10.097162529346001</v>
       </c>
@@ -6915,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3681FCE3-7C45-FE4A-B4D9-58BBD0759169}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6972,10 +5678,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
@@ -7005,10 +5711,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E3" s="11">
         <v>0.61120521576144304</v>
@@ -7038,10 +5744,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E4" s="11">
         <v>-7.1645825427363698E-3</v>
@@ -7071,10 +5777,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11">
         <v>-0.28196633900000001</v>
@@ -7104,10 +5810,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E6" s="11">
         <v>4021.5011695428002</v>
@@ -7137,10 +5843,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E7" s="11">
         <v>-0.12430862230397099</v>
@@ -7170,10 +5876,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E8" s="11">
         <v>1.85974769401657</v>
@@ -7203,10 +5909,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E9" s="11">
         <v>9.9322064977795996</v>
@@ -7228,568 +5934,226 @@
         <v>9.9707717627203998</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="51">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+    <row r="14" spans="1:12" ht="18">
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="4"/>
-      <c r="G14" s="8">
-        <f>(ABS(E14 -F14)/MAX(ABS(E14),ABS(F14)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="8">
-        <f xml:space="preserve"> Week3!G14 - Week6!G14</f>
-        <v>-100</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="11">
         <v>-2.1161475050144601E-4</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="18">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.61120521576144304</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week6!G15</f>
-        <v>-100</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="11">
         <v>0.404495326244732</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="18">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="11"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week6!G16</f>
-        <v>-100</v>
-      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="11">
         <v>-5.0968886234727701E-2</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="11">
-        <v>-0.28196633900000001</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week6!G17</f>
-        <v>-100</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="11">
         <v>-10.7620861794012</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4021.5011695428002</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week6!G18</f>
-        <v>-100</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="11">
         <v>2888.3754497268501</v>
       </c>
       <c r="L18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" ht="18">
+      <c r="C19" s="11"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H19" s="8">
-        <f xml:space="preserve"> Week3!G19 - Week6!G19</f>
-        <v>-100</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="11">
         <v>-0.51958075911188295</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.85974769401657</v>
-      </c>
+    <row r="20" spans="3:12" ht="18">
+      <c r="C20" s="11"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H20" s="8">
-        <f xml:space="preserve"> Week3!G20 - Week6!G20</f>
-        <v>-100</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="11">
         <v>1.49086437511737</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="11">
-        <v>9.9322064977795996</v>
-      </c>
+    <row r="21" spans="3:12" ht="18">
+      <c r="C21" s="11"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H21" s="8">
-        <f xml:space="preserve"> Week3!G21 - Week6!G21</f>
-        <v>-100</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="27" spans="3:12">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="8">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H28" s="8">
-        <f xml:space="preserve"> Week3!G2 - Week6!G28</f>
-        <v>2.0605739337042905E-11</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.61120521576144304</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="18">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H29" s="8">
-        <f xml:space="preserve"> Week3!G3 - Week6!G29</f>
-        <v>-67.801198873646968</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="11">
         <v>0.57025108339151198</v>
       </c>
       <c r="L29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" ht="18">
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H30" s="8">
-        <f xml:space="preserve"> Week3!G4 - Week6!G30</f>
-        <v>-15.003236229389842</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="11">
         <v>-9.9159375360608495E-2</v>
       </c>
       <c r="L30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-0.28196633900000001</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="18">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H31" s="8">
-        <f xml:space="preserve"> Week3!G5 - Week6!G31</f>
-        <v>-56.356892788140591</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="11">
         <v>-0.61452676876525503</v>
       </c>
       <c r="L31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E32" s="11">
-        <v>4021.5011695428002</v>
-      </c>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" ht="18">
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H32" s="8">
-        <f xml:space="preserve"> Week3!G6 - Week6!G32</f>
-        <v>-44.20956933281812</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="11">
         <v>157.32611553417499</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
+    <row r="33" spans="3:10" ht="18">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H33" s="8">
-        <f xml:space="preserve"> Week3!G7 - Week6!G33</f>
-        <v>-38.753477525597134</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="11">
         <v>-0.224207237373589</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1.85974769401657</v>
-      </c>
+    <row r="34" spans="3:10" ht="18">
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H34" s="8">
-        <f xml:space="preserve"> Week3!G8 - Week6!G34</f>
-        <v>-70.691643968564648</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="11">
         <v>1.79964628897446</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="11">
-        <v>9.9322064977795996</v>
-      </c>
+    <row r="35" spans="3:10" ht="18">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H35" s="8">
-        <f xml:space="preserve"> Week3!G9 - Week6!G35</f>
-        <v>-97.559723769512345</v>
-      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="J35" s="11"/>
     </row>
   </sheetData>
@@ -7799,10 +6163,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E82FB8-14CB-9B46-9DAB-27A504804547}">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7858,10 +6222,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E2" s="10">
         <v>7.7108751145028402E-16</v>
@@ -7892,10 +6256,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E3" s="11">
         <v>0.61120521576144304</v>
@@ -7925,10 +6289,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E4" s="11">
         <v>-7.1645825427363698E-3</v>
@@ -7958,10 +6322,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E5" s="11">
         <v>-0.28196633900000001</v>
@@ -7991,10 +6355,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="E6" s="11">
         <v>4021.5011695428002</v>
@@ -8024,10 +6388,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="E7" s="11">
         <v>-0.12430862230397099</v>
@@ -8057,10 +6421,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E8" s="11">
         <v>1.88380795677045</v>
@@ -8090,10 +6454,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="E9" s="11">
         <v>9.9707717627203998</v>
@@ -8115,576 +6479,163 @@
         <v>9.9515462235145993</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="18">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2.45415370407854E-54</v>
-      </c>
-      <c r="G14" s="8">
-        <f>(ABS(E14 -F14)/MAX(ABS(E14),ABS(F14)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="8">
-        <f xml:space="preserve"> Week3!G14 - Week7!G14</f>
-        <v>-100</v>
-      </c>
-      <c r="J14" s="10">
-        <v>-7.3352407821837605E-5</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:11" ht="18">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.61120521576144304</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0.19283512655684401</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>68.450019472329132</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week7!G15</f>
-        <v>-68.450019472329132</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.36640478504205698</v>
-      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
-      <c r="F16">
-        <v>-3.3040646100640003E-2</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
-        <v>78.315852175186166</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week7!G16</f>
-        <v>-78.315852175186166</v>
-      </c>
-      <c r="J16" s="11">
-        <v>-2.5414118062859E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="11">
-        <v>-0.28196633900000001</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.57749759425457003</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>148.82554348368501</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week7!G17</f>
-        <v>-148.82554348368501</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0.53789510663172801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4021.5011695428002</v>
-      </c>
-      <c r="F18" s="5">
-        <v>4310.9805594415402</v>
-      </c>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>6.7149314618166649</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week7!G18</f>
-        <v>-6.7149314618166649</v>
-      </c>
-      <c r="J18" s="11">
-        <v>4154.7492977014199</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
-      <c r="F19" s="5">
-        <v>-0.15947669058205399</v>
-      </c>
-      <c r="G19" s="8">
-        <f t="shared" si="2"/>
-        <v>22.052168344933339</v>
-      </c>
-      <c r="H19" s="8">
-        <f xml:space="preserve"> Week3!G19 - Week7!G19</f>
-        <v>-22.052168344933339</v>
-      </c>
-      <c r="J19" s="11">
-        <v>-0.50510722887869497</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.88380795677045</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1.8684324311018099</v>
-      </c>
-      <c r="G20" s="8">
-        <f t="shared" si="2"/>
-        <v>0.81619390200471809</v>
-      </c>
-      <c r="H20" s="8">
-        <f xml:space="preserve"> Week3!G20 - Week7!G20</f>
-        <v>-0.81619390200471809</v>
-      </c>
-      <c r="J20" s="11">
-        <v>1.3954590139716301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>141</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="3:10" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="3:10" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="3:10" ht="18">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="3:10" ht="18">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="3:10" ht="18">
+      <c r="C21" s="11"/>
       <c r="D21" s="9"/>
-      <c r="E21" s="11">
-        <v>9.9707717627203998</v>
-      </c>
-      <c r="F21" s="5">
-        <v>9.9515462235145993</v>
-      </c>
-      <c r="G21" s="8">
-        <f t="shared" si="2"/>
-        <v>0.19281896791262079</v>
-      </c>
-      <c r="H21" s="8">
-        <f xml:space="preserve"> Week3!G21 - Week7!G21</f>
-        <v>-0.19281896791262079</v>
-      </c>
-      <c r="J21" s="11">
-        <v>9.3105784918819197</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E28" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
-      <c r="F28" s="3">
-        <v>2.45415370407854E-54</v>
-      </c>
-      <c r="G28" s="8">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H28" s="8">
-        <f xml:space="preserve"> Week3!G2 - Week7!G28</f>
-        <v>2.0605739337042905E-11</v>
-      </c>
-      <c r="J28" s="11">
-        <v>-1.8030313221813401E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="11">
-        <v>0.61120521576144304</v>
-      </c>
-      <c r="F29" s="5">
-        <v>0.19283512655684401</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>68.450019472329132</v>
-      </c>
-      <c r="H29" s="8">
-        <f xml:space="preserve"> Week3!G3 - Week7!G29</f>
-        <v>-36.251218345976092</v>
-      </c>
-      <c r="J29" s="11">
-        <v>0.58371094034922</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
-      <c r="F30">
-        <v>-3.3040646100640003E-2</v>
-      </c>
-      <c r="G30" s="8">
-        <f t="shared" si="3"/>
-        <v>78.315852175186166</v>
-      </c>
-      <c r="H30" s="8">
-        <f xml:space="preserve"> Week3!G4 - Week7!G30</f>
-        <v>6.6809115954239928</v>
-      </c>
-      <c r="J30" s="11">
-        <v>-0.10020592550034001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" s="11">
-        <v>-0.28196633900000001</v>
-      </c>
-      <c r="F31" s="5">
-        <v>0.57749759425457003</v>
-      </c>
-      <c r="G31" s="8">
-        <f t="shared" si="3"/>
-        <v>148.82554348368501</v>
-      </c>
-      <c r="H31" s="8">
-        <f xml:space="preserve"> Week3!G5 - Week7!G31</f>
-        <v>-105.18243627182559</v>
-      </c>
-      <c r="J31" s="11">
-        <v>-0.25765657912177498</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="11">
-        <v>4021.5011695428002</v>
-      </c>
-      <c r="F32" s="5">
-        <v>4310.9805594415402</v>
-      </c>
-      <c r="G32" s="8">
-        <f t="shared" si="3"/>
-        <v>6.7149314618166649</v>
-      </c>
-      <c r="H32" s="8">
-        <f xml:space="preserve"> Week3!G6 - Week7!G32</f>
-        <v>49.075499205365219</v>
-      </c>
-      <c r="J32" s="11">
-        <v>1139.76763933693</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
-      <c r="F33" s="5">
-        <v>-0.15947669058205399</v>
-      </c>
-      <c r="G33" s="8">
-        <f t="shared" si="3"/>
-        <v>22.052168344933339</v>
-      </c>
-      <c r="H33" s="8">
-        <f xml:space="preserve"> Week3!G7 - Week7!G33</f>
-        <v>39.194354129469531</v>
-      </c>
-      <c r="J33" s="11">
-        <v>-0.321668949645806</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="11">
-        <v>1.88380795677045</v>
-      </c>
-      <c r="F34" s="5">
-        <v>1.8684324311018099</v>
-      </c>
-      <c r="G34" s="8">
-        <f t="shared" si="3"/>
-        <v>0.81619390200471809</v>
-      </c>
-      <c r="H34" s="8">
-        <f xml:space="preserve"> Week3!G8 - Week7!G34</f>
-        <v>28.492162129430628</v>
-      </c>
-      <c r="J34" s="11">
-        <v>1.79866302231526</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="11">
-        <v>9.9707717627203998</v>
-      </c>
-      <c r="F35" s="5">
-        <v>9.9515462235145993</v>
-      </c>
-      <c r="G35" s="8">
-        <f t="shared" si="3"/>
-        <v>0.19281896791262079</v>
-      </c>
-      <c r="H35" s="8">
-        <f xml:space="preserve"> Week3!G9 - Week7!G35</f>
-        <v>2.2474572625750402</v>
-      </c>
-      <c r="J35" s="11">
-        <v>10.055705404089901</v>
-      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="27" spans="3:10">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="3:10" ht="18">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="3:10" ht="18">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="3:10" ht="18">
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="11"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="3:10" ht="18">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="3:10" ht="18">
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="3:10" ht="18">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="3:10" ht="18">
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="3:10" ht="18">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="J35" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8695,8 +6646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6975360-05B9-BF46-ACA0-E371166E0A7A}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -8752,10 +6703,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
@@ -8788,10 +6739,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E3" s="12">
         <v>0.61120521576144304</v>
@@ -8823,10 +6774,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E4" s="12">
         <v>-7.1645825427363698E-3</v>
@@ -8858,10 +6809,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E5" s="12">
         <v>0.57749759425457003</v>
@@ -8893,10 +6844,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="E6" s="12">
         <v>4310.9805594415402</v>
@@ -8928,10 +6879,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="E7" s="12">
         <v>-0.12430862230397099</v>
@@ -8963,10 +6914,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="E8" s="12">
         <v>1.88380795677045</v>
@@ -8998,10 +6949,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>161</v>
+        <v>124</v>
       </c>
       <c r="E9" s="12">
         <v>9.9707717627203998</v>
@@ -9025,525 +6976,199 @@
         <v>-0.10213290365000027</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="13" spans="1:11">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="18">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="10">
-        <v>7.7108751145028402E-16</v>
-      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="8">
-        <f>(ABS(E14 -F14)/MAX(ABS(E14),ABS(F14)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H14" s="8">
-        <f xml:space="preserve"> Week3!G14 - Week8!G14</f>
-        <v>-100</v>
-      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="J14" s="11">
         <v>2.1552763417276701E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="34">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0.61120521576144304</v>
-      </c>
+    <row r="15" spans="1:11" ht="18">
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="8">
-        <f t="shared" ref="G15:G21" si="2">(ABS(E15 -F15)/MAX(ABS(E15),ABS(F15)) )* 100</f>
-        <v>100</v>
-      </c>
-      <c r="H15" s="8">
-        <f xml:space="preserve"> Week3!G15 - Week8!G15</f>
-        <v>-100</v>
-      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="J15" s="11">
         <v>0.41421500528851501</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="18">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="11">
-        <v>-7.1645825427363698E-3</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="8">
-        <f xml:space="preserve"> Week3!G16 - Week8!G16</f>
-        <v>-100</v>
-      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="J16" s="11">
         <v>-4.6199868011901598E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="18">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="11">
-        <v>0.57749759425457003</v>
-      </c>
+    <row r="17" spans="3:12" ht="18">
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H17" s="8">
-        <f xml:space="preserve"> Week3!G17 - Week8!G17</f>
-        <v>-100</v>
-      </c>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="J17" s="11">
         <v>0.64593201475483397</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="18">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>5</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="11">
-        <v>4310.9805594415402</v>
-      </c>
+    <row r="18" spans="3:12" ht="18">
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
       <c r="F18" s="5"/>
-      <c r="G18" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H18" s="8">
-        <f xml:space="preserve"> Week3!G18 - Week8!G18</f>
-        <v>-100</v>
-      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
       <c r="J18" s="11">
         <v>4196.1960363899398</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="18">
-      <c r="A19">
-        <v>6</v>
-      </c>
-      <c r="B19">
-        <v>6</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E19" s="11">
-        <v>-0.12430862230397099</v>
-      </c>
+    <row r="19" spans="3:12" ht="18">
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
       <c r="F19" s="5"/>
-      <c r="G19" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H19" s="8">
-        <f xml:space="preserve"> Week3!G19 - Week8!G19</f>
-        <v>-100</v>
-      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
       <c r="J19" s="11">
         <v>-0.68032936100050401</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20">
-        <v>7</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E20" s="11">
-        <v>1.88380795677045</v>
-      </c>
+    <row r="20" spans="3:12" ht="18">
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H20" s="8">
-        <f xml:space="preserve"> Week3!G20 - Week8!G20</f>
-        <v>-100</v>
-      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
       <c r="J20" s="11">
         <v>1.15147506727585</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="18">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21">
-        <v>8</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E21" s="11">
-        <v>9.9707717627203998</v>
-      </c>
+    <row r="21" spans="3:12" ht="18">
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="8">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="H21" s="8">
-        <f xml:space="preserve"> Week3!G21 - Week8!G21</f>
-        <v>-100</v>
-      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
       <c r="J21" s="11">
         <v>9.4274088419550495</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-      <c r="D27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>14</v>
-      </c>
+    <row r="27" spans="3:12">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="2" t="s">
         <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="18">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="18">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="10"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="8" t="e">
-        <f>(ABS(E28 -F28)/MAX(ABS(E28),ABS(F28)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H28" s="8" t="e">
-        <f xml:space="preserve"> Week3!G2 - Week8!G28</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
       <c r="J28" s="11">
         <v>-1.8030313221813401E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>76</v>
-      </c>
+    <row r="29" spans="3:12" ht="18">
+      <c r="C29" s="11"/>
+      <c r="D29" s="9"/>
       <c r="E29" s="11"/>
       <c r="F29" s="5"/>
-      <c r="G29" s="8" t="e">
-        <f t="shared" ref="G29:G35" si="3">(ABS(E29 -F29)/MAX(ABS(E29),ABS(F29)) )* 100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H29" s="8" t="e">
-        <f xml:space="preserve"> Week3!G3 - Week8!G29</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
       <c r="J29" s="11">
         <v>0.58391205395133206</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>76</v>
-      </c>
+    <row r="30" spans="3:12" ht="18">
+      <c r="C30" s="11"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="11"/>
-      <c r="G30" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H30" s="8" t="e">
-        <f xml:space="preserve"> Week3!G4 - Week8!G30</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
       <c r="J30" s="11">
         <v>-0.10027326290794999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>4</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>76</v>
-      </c>
+    <row r="31" spans="3:12" ht="18">
+      <c r="C31" s="11"/>
+      <c r="D31" s="9"/>
       <c r="E31" s="11"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H31" s="8" t="e">
-        <f xml:space="preserve"> Week3!G5 - Week8!G31</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
       <c r="J31" s="11">
         <v>-9.9621962834792299E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>5</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>156</v>
-      </c>
+    <row r="32" spans="3:12" ht="18">
+      <c r="C32" s="11"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="11"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H32" s="8" t="e">
-        <f xml:space="preserve"> Week3!G6 - Week8!G32</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
       <c r="J32" s="11">
         <v>3327.9711854080501</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="18">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>159</v>
-      </c>
+    <row r="33" spans="3:10" ht="18">
+      <c r="C33" s="11"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="11"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H33" s="8" t="e">
-        <f xml:space="preserve"> Week3!G7 - Week8!G33</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
       <c r="J33" s="11">
         <v>-0.225240846153381</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="18">
-      <c r="A34">
-        <v>7</v>
-      </c>
-      <c r="B34">
-        <v>7</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>161</v>
-      </c>
+    <row r="34" spans="3:10" ht="18">
+      <c r="C34" s="11"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="11"/>
       <c r="F34" s="5"/>
-      <c r="G34" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H34" s="8" t="e">
-        <f xml:space="preserve"> Week3!G8 - Week8!G34</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
       <c r="J34" s="11">
         <v>1.7831573756904999</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="18">
-      <c r="A35">
-        <v>8</v>
-      </c>
-      <c r="B35">
-        <v>8</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>161</v>
-      </c>
+    <row r="35" spans="3:10" ht="18">
+      <c r="C35" s="11"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="11"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="8" t="e">
-        <f xml:space="preserve"> Week3!G9 - Week8!G35</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
       <c r="J35" s="11">
         <v>10.055621427000901</v>
       </c>

--- a/observations/Observations.xlsx
+++ b/observations/Observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nareshpanta/Documents/GitHub/imperial-ai-ml-capstone-project/observations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE96BA2-2F42-9446-938A-AAFFADE9A348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88371501-01CA-AD45-93BC-F38B03753B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="30240" windowHeight="17540" activeTab="12" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
+    <workbookView xWindow="31600" yWindow="3220" windowWidth="30240" windowHeight="17540" xr2:uid="{879C9F3D-DEC7-554E-8B9E-2E328A028C98}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -1032,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F054F69-D94D-D64A-81C5-4411182D0207}">
   <dimension ref="A3:R24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1150,12 +1150,16 @@
         <f>Week11!F2</f>
         <v>5.3199374410186903E-77</v>
       </c>
+      <c r="M5" s="3">
+        <f>Week12!F2</f>
+        <v>-8.8469843398183902E-47</v>
+      </c>
       <c r="P5" s="3" t="str">
-        <f>INDEX($B$4:$M$4, MATCH(MAX(B5:M5), B5:M5, 0))</f>
+        <f>INDEX($B$4:$N$4, MATCH(MAX(B5:N5), B5:N5, 0))</f>
         <v>Week10</v>
       </c>
       <c r="Q5" s="3">
-        <f>MAX(B5:M5)</f>
+        <f>MAX(B5:N5)</f>
         <v>1.7063022014990999E-17</v>
       </c>
       <c r="R5" s="13" t="s">
@@ -1210,12 +1214,16 @@
         <f>Week11!F3</f>
         <v>0.59041015345404801</v>
       </c>
+      <c r="M6" s="3">
+        <f>Week12!F3</f>
+        <v>0.597187708224443</v>
+      </c>
       <c r="P6" s="3" t="str">
-        <f t="shared" ref="P6:P12" si="0">INDEX($B$4:$M$4, MATCH(MAX(B6:M6), B6:M6, 0))</f>
+        <f t="shared" ref="P6:P12" si="0">INDEX($B$4:$N$4, MATCH(MAX(B6:N6), B6:N6, 0))</f>
         <v>Week10</v>
       </c>
       <c r="Q6" s="3">
-        <f t="shared" ref="Q6:Q12" si="1">MAX(B6:M6)</f>
+        <f t="shared" ref="Q6:Q12" si="1">MAX(B6:N6)</f>
         <v>0.72074952220389799</v>
       </c>
       <c r="R6" s="12" t="s">
@@ -1270,13 +1278,17 @@
         <f>Week11!F4</f>
         <v>-2.4594206281152501E-2</v>
       </c>
+      <c r="M7" s="3">
+        <f>Week12!F4</f>
+        <v>-2.2017116100763998E-3</v>
+      </c>
       <c r="P7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Week9</v>
+        <v>Week12</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="1"/>
-        <v>-2.6296009521582001E-3</v>
+        <v>-2.2017116100763998E-3</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>145</v>
@@ -1330,6 +1342,10 @@
         <f>Week11!F5</f>
         <v>0.32777233146964202</v>
       </c>
+      <c r="M8" s="3">
+        <f>Week12!F5</f>
+        <v>-0.31259582502495598</v>
+      </c>
       <c r="P8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week7</v>
@@ -1390,13 +1406,17 @@
         <f>Week11!F6</f>
         <v>4427.0201211809099</v>
       </c>
+      <c r="M9" s="3">
+        <f>Week12!F6</f>
+        <v>5012.3175754481999</v>
+      </c>
       <c r="P9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>Week10</v>
+        <v>Week12</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="1"/>
-        <v>4537.8399923503803</v>
+        <v>5012.3175754481999</v>
       </c>
       <c r="R9" t="s">
         <v>75</v>
@@ -1450,6 +1470,10 @@
         <f>Week11!F7</f>
         <v>-0.31585929101590399</v>
       </c>
+      <c r="M10" s="3">
+        <f>Week12!F7</f>
+        <v>-0.19742098512742601</v>
+      </c>
       <c r="P10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week4</v>
@@ -1510,6 +1534,10 @@
         <f>Week11!F8</f>
         <v>2.2490463956487199</v>
       </c>
+      <c r="M11" s="3">
+        <f>Week12!F8</f>
+        <v>1.7333957368055199</v>
+      </c>
       <c r="P11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Week11</v>
@@ -1569,6 +1597,10 @@
       <c r="L12" s="3">
         <f>Week11!F9</f>
         <v>9.9354315173545995</v>
+      </c>
+      <c r="M12" s="3">
+        <f>Week12!F9</f>
+        <v>9.9266159737059994</v>
       </c>
       <c r="P12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3485,8 +3517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2813DB47-A948-6147-8853-803046178ACE}">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3550,7 +3582,9 @@
       <c r="E2" s="12">
         <v>7.7108751145028402E-16</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="4">
+        <v>-8.8469843398183902E-47</v>
+      </c>
       <c r="G2" s="8">
         <f>(ABS(E2 -F2)/MAX(ABS(E2),ABS(F2)) )* 100</f>
         <v>100</v>
@@ -3580,14 +3614,16 @@
       <c r="E3" s="12">
         <v>0.72074952220389799</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5">
+        <v>0.597187708224443</v>
+      </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G9" si="0">(ABS(E3 -F3)/MAX(ABS(E3),ABS(F3)) )* 100</f>
-        <v>100</v>
+        <v>17.143516599446276</v>
       </c>
       <c r="H3" s="8">
         <f xml:space="preserve"> Week4!G3 - Week12!G3</f>
-        <v>-83.002114894781968</v>
+        <v>-0.1456314942282475</v>
       </c>
       <c r="J3" s="12">
         <v>0.51966319858133303</v>
@@ -3609,14 +3645,16 @@
       <c r="E4" s="12">
         <v>-2.6296009521582001E-3</v>
       </c>
-      <c r="F4" s="5"/>
+      <c r="F4" s="5">
+        <v>-2.2017116100763998E-3</v>
+      </c>
       <c r="G4" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>16.272025674869695</v>
       </c>
       <c r="H4" s="8">
         <f xml:space="preserve"> Week4!G4 - Week12!G4</f>
-        <v>-43.675322431711862</v>
+        <v>40.052651893418442</v>
       </c>
       <c r="J4" s="12">
         <v>-3.1325207106162899E-2</v>
@@ -3638,14 +3676,16 @@
       <c r="E5" s="12">
         <v>0.57749759425457003</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5">
+        <v>-0.31259582502495598</v>
+      </c>
       <c r="G5" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>154.1293726822278</v>
       </c>
       <c r="H5" s="8">
         <f xml:space="preserve"> Week4!G5 - Week12!G5</f>
-        <v>-20.157893845945111</v>
+        <v>-74.287266528172907</v>
       </c>
       <c r="J5" s="12">
         <v>0.41872687865768998</v>
@@ -3667,7 +3707,9 @@
       <c r="E6" s="12">
         <v>4537.8399923503803</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5">
+        <v>5012.3175754481999</v>
+      </c>
       <c r="G6" s="8" t="e">
         <f>(ABS(#REF! -F6)/MAX(ABS(#REF!),ABS(F6)) )* 100</f>
         <v>#REF!</v>
@@ -3696,14 +3738,16 @@
       <c r="E7" s="12">
         <v>-0.12430862230397099</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5">
+        <v>-0.19742098512742601</v>
+      </c>
       <c r="G7" s="8">
         <f>(ABS(E6 -F7)/MAX(ABS(E6),ABS(F7)) )* 100</f>
-        <v>100</v>
+        <v>100.00435054972104</v>
       </c>
       <c r="H7" s="8">
         <f xml:space="preserve"> Week4!G7 - Week12!G7</f>
-        <v>-38.270285672117879</v>
+        <v>-38.274636221838918</v>
       </c>
       <c r="J7" s="12">
         <v>-0.24964000789294799</v>
@@ -3725,14 +3769,16 @@
       <c r="E8" s="12">
         <v>2.2490463956487199</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5">
+        <v>1.7333957368055199</v>
+      </c>
       <c r="G8" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>22.927524298335541</v>
       </c>
       <c r="H8" s="8">
         <f xml:space="preserve"> Week4!G8 - Week12!G8</f>
-        <v>-61.618741047274334</v>
+        <v>15.453734654390125</v>
       </c>
       <c r="J8" s="12">
         <v>2.0903271465819602</v>
@@ -3754,14 +3800,16 @@
       <c r="E9" s="12">
         <v>9.9707717627203998</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5">
+        <v>9.9266159737059994</v>
+      </c>
       <c r="G9" s="8">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>0.44285226926459181</v>
       </c>
       <c r="H9" s="8">
         <f xml:space="preserve"> Week4!G9 - Week12!G9</f>
-        <v>-99.927095523206944</v>
+        <v>-0.36994779247154075</v>
       </c>
       <c r="J9" s="12">
         <v>10.046887488720801</v>
